--- a/excel_routes/route_RUH_ATZ_threats.xlsx
+++ b/excel_routes/route_RUH_ATZ_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K188"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +736,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>flynas XY-273</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -781,17 +781,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>664</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-385</v>
+        <v>-405</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>20</v>
@@ -826,26 +826,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>664</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-360</v>
+        <v>-405</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -871,26 +871,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>664</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-360</v>
+        <v>-385</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -916,26 +916,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>664</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-344</v>
+        <v>-375</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-163</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>664</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-344</v>
+        <v>-360</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -1006,26 +1006,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>449</v>
+        <v>304</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>664</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-215</v>
+        <v>-360</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1051,26 +1051,26 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-273</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>449</v>
+        <v>320</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>664</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-215</v>
+        <v>-344</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1096,26 +1096,26 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>Nesma Airlines NE-163</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>449</v>
+        <v>320</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>664</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-215</v>
+        <v>-344</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -1266,27 +1266,27 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>552</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-243</v>
+        <v>-232</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1311,12 +1311,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1356,27 +1356,27 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>Nile Air NP-252</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>552</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-221</v>
+        <v>-232</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1401,36 +1401,36 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-273</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>449</v>
+        <v>331</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>552</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-103</v>
+        <v>-221</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
@@ -1446,17 +1446,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -1491,27 +1491,27 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>552</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-103</v>
+        <v>-73</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>40</v>
@@ -1536,17 +1536,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -1581,36 +1581,36 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>EgyptAir MS-648</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>479</v>
+        <v>558</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>552</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-73</v>
+        <v>6</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J25" s="3" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,26 +1636,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>479</v>
+        <v>348</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>552</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-73</v>
+        <v>-204</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,26 +1681,26 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-311</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>481</v>
+        <v>348</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>552</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-71</v>
+        <v>-204</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,26 +1726,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-417</t>
+          <t>Nesma Airlines NE-163</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>481</v>
+        <v>350</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>552</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-71</v>
+        <v>-202</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,26 +1771,26 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-4039</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>481</v>
+        <v>342</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>552</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-71</v>
+        <v>-210</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,26 +1816,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-650</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>493</v>
+        <v>342</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>552</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-59</v>
+        <v>-210</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,26 +1861,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-648</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>558</v>
+        <v>350</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>552</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>6</v>
+        <v>-202</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>11-FEB-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,26 +1906,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>298</v>
+        <v>641</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>552</v>
+        <v>608</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-254</v>
+        <v>33</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,26 +1951,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-161</t>
+          <t>Saudia SV-4039</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>320</v>
+        <v>481</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-232</v>
+        <v>-115</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,26 +1996,26 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-252</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>320</v>
+        <v>542</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-232</v>
+        <v>-54</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
@@ -2031,27 +2031,27 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>552</v>
+        <v>662</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-232</v>
+        <v>-264</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>30</v>
@@ -2076,40 +2076,40 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-4039</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>552</v>
+        <v>662</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-164</v>
+        <v>-264</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J36" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2121,40 +2121,40 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>24-FEB-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-273</t>
+          <t>Saudia SV-321</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>552</v>
+        <v>662</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-103</v>
+        <v>-181</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2166,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>25-FEB-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2176,26 +2176,26 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>552</v>
+        <v>662</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-103</v>
+        <v>-264</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>25-FEB-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2221,26 +2221,26 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>552</v>
+        <v>662</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-103</v>
+        <v>-261</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>25-FEB-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2266,26 +2266,26 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>552</v>
+        <v>662</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-73</v>
+        <v>-219</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>25-FEB-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,26 +2311,26 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>EgyptAir MS-652</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>552</v>
+        <v>662</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-73</v>
+        <v>-112</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
@@ -2346,40 +2346,40 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>479</v>
+        <v>639</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-73</v>
+        <v>-605</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -2391,40 +2391,40 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-311</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>481</v>
+        <v>639</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-71</v>
+        <v>-605</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -2436,40 +2436,40 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-648</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>558</v>
+        <v>639</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>6</v>
+        <v>-605</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -2481,40 +2481,40 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-161</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>320</v>
+        <v>639</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-232</v>
+        <v>-605</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -2526,27 +2526,27 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-252</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>320</v>
+        <v>678</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-232</v>
+        <v>-566</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>30</v>
@@ -2557,9 +2557,9 @@
       <c r="I46" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
@@ -2571,36 +2571,36 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-311</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>388</v>
+        <v>678</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-164</v>
+        <v>-566</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J47" s="4" t="inlineStr">
         <is>
@@ -2616,40 +2616,40 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>479</v>
+        <v>689</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-73</v>
+        <v>-555</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
@@ -2661,40 +2661,40 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-273</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>479</v>
+        <v>689</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-73</v>
+        <v>-555</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
@@ -2706,40 +2706,40 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>479</v>
+        <v>745</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-73</v>
+        <v>-499</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
@@ -2751,36 +2751,36 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>flyadeal F3-611</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>479</v>
+        <v>749</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-73</v>
+        <v>-495</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
@@ -2796,36 +2796,36 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-648</t>
+          <t>flyadeal F3-615</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>558</v>
+        <v>749</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>6</v>
+        <v>-495</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>01-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -2851,17 +2851,17 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>348</v>
+        <v>749</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-204</v>
+        <v>-495</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>30</v>
@@ -2872,9 +2872,9 @@
       <c r="I53" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
@@ -2886,7 +2886,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>01-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2896,26 +2896,26 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>Saudia SV-311</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>348</v>
+        <v>807</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-204</v>
+        <v>-437</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>01-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -2941,26 +2941,26 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>479</v>
+        <v>1100</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-73</v>
+        <v>-144</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -2986,26 +2986,26 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>EgyptAir MS-652</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>342</v>
+        <v>1156</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-210</v>
+        <v>-88</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -3031,26 +3031,26 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>EgyptAir MS-648</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>342</v>
+        <v>1164</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-210</v>
+        <v>-80</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -3076,17 +3076,17 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-4039</t>
+          <t>EgyptAir MS-8246</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>481</v>
+        <v>1412</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>552</v>
+        <v>1244</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-71</v>
+        <v>168</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>46</v>
@@ -3111,40 +3111,40 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flyadeal F3-615</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>519</v>
+        <v>699</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>664</v>
+        <v>1394</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-145</v>
+        <v>-695</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
@@ -3156,40 +3156,40 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-4039</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>629</v>
+        <v>759</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>664</v>
+        <v>1394</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-35</v>
+        <v>-635</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
@@ -3201,40 +3201,40 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-650</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>542</v>
+        <v>759</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>596</v>
+        <v>1394</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-54</v>
+        <v>-635</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
@@ -3246,12 +3246,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -3260,13 +3260,13 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>398</v>
+        <v>790</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>662</v>
+        <v>1394</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>-264</v>
+        <v>-604</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>30</v>
@@ -3277,9 +3277,9 @@
       <c r="I62" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J62" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
@@ -3291,12 +3291,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -3305,13 +3305,13 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>398</v>
+        <v>790</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>662</v>
+        <v>1394</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-264</v>
+        <v>-604</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>30</v>
@@ -3322,9 +3322,9 @@
       <c r="I63" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J63" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
@@ -3336,40 +3336,40 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-321</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>481</v>
+        <v>849</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>662</v>
+        <v>1394</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-181</v>
+        <v>-545</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J64" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
@@ -3381,36 +3381,36 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>519</v>
+        <v>849</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>662</v>
+        <v>1394</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-143</v>
+        <v>-545</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3436,26 +3436,26 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>398</v>
+        <v>849</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>662</v>
+        <v>1394</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-264</v>
+        <v>-545</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -3481,26 +3481,26 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-161</t>
+          <t>flyadeal F3-611</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>401</v>
+        <v>869</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>662</v>
+        <v>1394</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-261</v>
+        <v>-525</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -3526,26 +3526,26 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>443</v>
+        <v>929</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>662</v>
+        <v>1394</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>-219</v>
+        <v>-465</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -3571,30 +3571,30 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-652</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>550</v>
+        <v>933</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>662</v>
+        <v>1394</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-112</v>
+        <v>-461</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
@@ -3606,7 +3606,7 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -3616,26 +3616,26 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-321</t>
+          <t>Nile Air NP-252</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>556</v>
+        <v>1043</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>662</v>
+        <v>1394</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>-106</v>
+        <v>-351</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -3661,26 +3661,26 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-313</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>556</v>
+        <v>1045</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>662</v>
+        <v>1394</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-106</v>
+        <v>-349</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J71" s="3" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -3706,17 +3706,17 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-417</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>556</v>
+        <v>1100</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>662</v>
+        <v>1394</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-106</v>
+        <v>-294</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>46</v>
@@ -3727,9 +3727,9 @@
       <c r="I72" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J72" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J72" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
@@ -3741,7 +3741,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -3751,17 +3751,17 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-311</t>
+          <t>EgyptAir MS-8240</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>629</v>
+        <v>1537</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>662</v>
+        <v>1394</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>-33</v>
+        <v>143</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>46</v>
@@ -3786,7 +3786,7 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -3796,30 +3796,30 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>flyadeal F3-605</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-605</v>
+        <v>-595</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J74" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K74" s="2" t="inlineStr">
@@ -3831,7 +3831,7 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -3841,30 +3841,30 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>flyadeal F3-615</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-605</v>
+        <v>-595</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J75" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J75" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K75" s="2" t="inlineStr">
@@ -3876,7 +3876,7 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -3886,17 +3886,17 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>639</v>
+        <v>759</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-605</v>
+        <v>-485</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>20</v>
@@ -3907,9 +3907,9 @@
       <c r="I76" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J76" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K76" s="2" t="inlineStr">
@@ -3921,7 +3921,7 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -3931,17 +3931,17 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>639</v>
+        <v>759</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>-605</v>
+        <v>-485</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>20</v>
@@ -3952,9 +3952,9 @@
       <c r="I77" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J77" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J77" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
@@ -3966,7 +3966,7 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -3976,30 +3976,30 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>678</v>
+        <v>759</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>-566</v>
+        <v>-485</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J78" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K78" s="2" t="inlineStr">
@@ -4011,7 +4011,7 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -4021,30 +4021,30 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>678</v>
+        <v>759</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>-566</v>
+        <v>-485</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J79" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K79" s="2" t="inlineStr">
@@ -4056,7 +4056,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -4066,17 +4066,17 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>689</v>
+        <v>759</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>-555</v>
+        <v>-485</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>20</v>
@@ -4087,9 +4087,9 @@
       <c r="I80" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J80" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K80" s="2" t="inlineStr">
@@ -4101,7 +4101,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -4111,30 +4111,30 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>Saudia SV-321</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>689</v>
+        <v>859</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>-555</v>
+        <v>-385</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J81" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J81" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K81" s="2" t="inlineStr">
@@ -4146,7 +4146,7 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -4156,30 +4156,30 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-161</t>
+          <t>Saudia SV-313</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>745</v>
+        <v>859</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>-499</v>
+        <v>-385</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J82" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K82" s="2" t="inlineStr">
@@ -4191,7 +4191,7 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -4201,26 +4201,26 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-611</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>749</v>
+        <v>933</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-495</v>
+        <v>-311</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -4246,30 +4246,30 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-615</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>749</v>
+        <v>949</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>-495</v>
+        <v>-295</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J84" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J84" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr">
@@ -4281,7 +4281,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -4291,17 +4291,17 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>749</v>
+        <v>983</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>-495</v>
+        <v>-261</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>30</v>
@@ -4312,9 +4312,9 @@
       <c r="I85" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J85" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J85" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K85" s="2" t="inlineStr">
@@ -4326,7 +4326,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -4336,26 +4336,26 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-650</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>1100</v>
+        <v>983</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>-144</v>
+        <v>-261</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -4381,17 +4381,17 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-652</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>1156</v>
+        <v>1100</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>-88</v>
+        <v>-144</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>46</v>
@@ -4416,7 +4416,7 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -4426,17 +4426,17 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-648</t>
+          <t>EgyptAir MS-652</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>-80</v>
+        <v>-88</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>46</v>
@@ -4461,7 +4461,7 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -4471,17 +4471,17 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-8246</t>
+          <t>EgyptAir MS-648</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>1412</v>
+        <v>1164</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>168</v>
+        <v>-80</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>46</v>
@@ -4506,40 +4506,40 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>Saudia SV-311</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>759</v>
+        <v>1271</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>1394</v>
+        <v>1244</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>-635</v>
+        <v>27</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J90" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K90" s="2" t="inlineStr">
@@ -4551,36 +4551,36 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>flyadeal F3-605</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>-635</v>
+        <v>-645</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J91" s="4" t="inlineStr">
         <is>
@@ -4596,40 +4596,40 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flyadeal F3-611</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>-604</v>
+        <v>-595</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J92" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
@@ -4641,40 +4641,40 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>790</v>
+        <v>849</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>-604</v>
+        <v>-545</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J93" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K93" s="2" t="inlineStr">
@@ -4686,36 +4686,36 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>flyadeal F3-615</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>849</v>
+        <v>869</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>-545</v>
+        <v>-525</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J94" s="3" t="inlineStr">
         <is>
@@ -4731,40 +4731,40 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>849</v>
+        <v>977</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>-545</v>
+        <v>-417</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J95" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K95" s="2" t="inlineStr">
@@ -4776,40 +4776,40 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>849</v>
+        <v>1039</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>-545</v>
+        <v>-355</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J96" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J96" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K96" s="2" t="inlineStr">
@@ -4821,40 +4821,40 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-611</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>869</v>
+        <v>1039</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>-525</v>
+        <v>-355</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J97" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K97" s="2" t="inlineStr">
@@ -4866,40 +4866,40 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-615</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>869</v>
+        <v>1039</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>-525</v>
+        <v>-355</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J98" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K98" s="2" t="inlineStr">
@@ -4911,12 +4911,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -4925,26 +4925,26 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>929</v>
+        <v>1119</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-465</v>
+        <v>-275</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J99" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J99" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K99" s="2" t="inlineStr">
@@ -4956,36 +4956,36 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>933</v>
+        <v>1119</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>-461</v>
+        <v>-275</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J100" s="4" t="inlineStr">
         <is>
@@ -5001,27 +5001,27 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-252</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>1043</v>
+        <v>1174</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-351</v>
+        <v>-220</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>30</v>
@@ -5046,27 +5046,27 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-161</t>
+          <t>Nesma Airlines NE-163</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>1045</v>
+        <v>1175</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>-349</v>
+        <v>-219</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>30</v>
@@ -5091,12 +5091,12 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -5105,13 +5105,13 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>1100</v>
+        <v>1401</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>-294</v>
+        <v>7</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>46</v>
@@ -5122,9 +5122,9 @@
       <c r="I103" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J103" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J103" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K103" s="2" t="inlineStr">
@@ -5136,17 +5136,17 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-8240</t>
+          <t>EgyptAir MS-8246</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
@@ -5181,27 +5181,27 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-615</t>
+          <t>flyadeal F3-605</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>649</v>
+        <v>799</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>-595</v>
+        <v>-795</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>15</v>
@@ -5212,9 +5212,9 @@
       <c r="I105" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="J105" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J105" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K105" s="2" t="inlineStr">
@@ -5226,27 +5226,27 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-605</t>
+          <t>flyadeal F3-607</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>649</v>
+        <v>869</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>-595</v>
+        <v>-725</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>15</v>
@@ -5257,9 +5257,9 @@
       <c r="I106" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="J106" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J106" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K106" s="2" t="inlineStr">
@@ -5271,40 +5271,40 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>759</v>
+        <v>1119</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-485</v>
+        <v>-475</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J107" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J107" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K107" s="2" t="inlineStr">
@@ -5316,40 +5316,40 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>759</v>
+        <v>1119</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-485</v>
+        <v>-475</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I108" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J108" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J108" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K108" s="2" t="inlineStr">
@@ -5361,40 +5361,40 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>759</v>
+        <v>1119</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>-485</v>
+        <v>-475</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J109" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J109" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K109" s="2" t="inlineStr">
@@ -5406,36 +5406,36 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>flyadeal F3-611</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>759</v>
+        <v>1149</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>-485</v>
+        <v>-445</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J110" s="3" t="inlineStr">
         <is>
@@ -5451,36 +5451,36 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>flyadeal F3-615</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>759</v>
+        <v>1149</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>-485</v>
+        <v>-445</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I111" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J111" s="3" t="inlineStr">
         <is>
@@ -5496,40 +5496,40 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>759</v>
+        <v>1174</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>-485</v>
+        <v>-420</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H112" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I112" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J112" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J112" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K112" s="2" t="inlineStr">
@@ -5541,27 +5541,27 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>Nile Air NP-252</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>933</v>
+        <v>1174</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>-311</v>
+        <v>-420</v>
       </c>
       <c r="G113" s="2" t="n">
         <v>30</v>
@@ -5572,9 +5572,9 @@
       <c r="I113" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J113" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J113" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K113" s="2" t="inlineStr">
@@ -5586,40 +5586,40 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>983</v>
+        <v>1219</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>-261</v>
+        <v>-375</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H114" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J114" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K114" s="2" t="inlineStr">
@@ -5631,27 +5631,27 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>983</v>
+        <v>1258</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>-261</v>
+        <v>-336</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>30</v>
@@ -5676,36 +5676,36 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-650</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>1100</v>
+        <v>1258</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>-144</v>
+        <v>-336</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H116" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I116" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J116" s="3" t="inlineStr">
         <is>
@@ -5721,36 +5721,36 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-652</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>1156</v>
+        <v>1335</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>-88</v>
+        <v>-259</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J117" s="3" t="inlineStr">
         <is>
@@ -5766,36 +5766,36 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-648</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>1164</v>
+        <v>1419</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>-80</v>
+        <v>-175</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J118" s="3" t="inlineStr">
         <is>
@@ -5811,36 +5811,36 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-313</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>1271</v>
+        <v>1419</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>27</v>
+        <v>-175</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H119" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J119" s="3" t="inlineStr">
         <is>
@@ -5856,27 +5856,27 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-8246</t>
+          <t>EgyptAir MS-8240</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>1412</v>
+        <v>1694</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>1244</v>
+        <v>1594</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>46</v>
@@ -5901,7 +5901,7 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -5911,17 +5911,17 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-605</t>
+          <t>flyadeal F3-607</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>749</v>
+        <v>869</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>-645</v>
+        <v>-1375</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>15</v>
@@ -5932,9 +5932,9 @@
       <c r="I121" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="J121" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J121" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K121" s="2" t="inlineStr">
@@ -5946,7 +5946,7 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -5956,17 +5956,17 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-611</t>
+          <t>flyadeal F3-605</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>799</v>
+        <v>869</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>-595</v>
+        <v>-1375</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>15</v>
@@ -5977,9 +5977,9 @@
       <c r="I122" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="J122" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J122" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K122" s="2" t="inlineStr">
@@ -5991,7 +5991,7 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -6001,17 +6001,17 @@
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>flynas XY-273</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>849</v>
+        <v>929</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>-545</v>
+        <v>-1315</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>20</v>
@@ -6022,9 +6022,9 @@
       <c r="I123" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J123" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J123" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K123" s="2" t="inlineStr">
@@ -6036,7 +6036,7 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-615</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>869</v>
+        <v>929</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>-525</v>
+        <v>-1315</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H124" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I124" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J124" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J124" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K124" s="2" t="inlineStr">
@@ -6081,7 +6081,7 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -6091,30 +6091,30 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flyadeal F3-611</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>929</v>
+        <v>949</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>-465</v>
+        <v>-1295</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J125" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J125" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K125" s="2" t="inlineStr">
@@ -6126,7 +6126,7 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -6136,30 +6136,30 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flynas XY-287</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>977</v>
+        <v>1029</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>-417</v>
+        <v>-1215</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J126" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K126" s="2" t="inlineStr">
@@ -6171,7 +6171,7 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -6181,30 +6181,30 @@
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>-355</v>
+        <v>-1215</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J127" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J127" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K127" s="2" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -6226,30 +6226,30 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>-355</v>
+        <v>-1215</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J128" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J128" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K128" s="2" t="inlineStr">
@@ -6261,7 +6261,7 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -6271,30 +6271,30 @@
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>-355</v>
+        <v>-1215</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J129" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J129" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K129" s="2" t="inlineStr">
@@ -6306,7 +6306,7 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -6320,26 +6320,26 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>-355</v>
+        <v>-1215</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J130" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J130" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K130" s="2" t="inlineStr">
@@ -6351,7 +6351,7 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
@@ -6361,30 +6361,30 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>1174</v>
+        <v>1029</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>-220</v>
+        <v>-1215</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J131" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K131" s="2" t="inlineStr">
@@ -6396,7 +6396,7 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -6406,17 +6406,17 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-163</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>1175</v>
+        <v>1263</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>-219</v>
+        <v>-981</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>30</v>
@@ -6427,9 +6427,9 @@
       <c r="I132" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J132" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J132" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K132" s="2" t="inlineStr">
@@ -6441,7 +6441,7 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -6451,30 +6451,30 @@
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-650</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>1401</v>
+        <v>1263</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>7</v>
+        <v>-981</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I133" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J133" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J133" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K133" s="2" t="inlineStr">
@@ -6486,7 +6486,7 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -6496,30 +6496,30 @@
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-8246</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>1537</v>
+        <v>1333</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>1394</v>
+        <v>2244</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>143</v>
+        <v>-911</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I134" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J134" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J134" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K134" s="2" t="inlineStr">
@@ -6541,26 +6541,26 @@
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-607</t>
+          <t>Nesma Airlines NE-163</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>869</v>
+        <v>1335</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>-1375</v>
+        <v>-909</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J135" s="5" t="inlineStr">
         <is>
@@ -6586,26 +6586,26 @@
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-605</t>
+          <t>Saudia SV-321</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>869</v>
+        <v>1443</v>
       </c>
       <c r="E136" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>-1375</v>
+        <v>-801</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H136" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J136" s="5" t="inlineStr">
         <is>
@@ -6631,26 +6631,26 @@
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-273</t>
+          <t>Saudia SV-313</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>929</v>
+        <v>1443</v>
       </c>
       <c r="E137" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>-1315</v>
+        <v>-801</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H137" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I137" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J137" s="5" t="inlineStr">
         <is>
@@ -6676,26 +6676,26 @@
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-611</t>
+          <t>Saudia SV-311</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>949</v>
+        <v>1443</v>
       </c>
       <c r="E138" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>-1295</v>
+        <v>-801</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J138" s="5" t="inlineStr">
         <is>
@@ -6721,26 +6721,26 @@
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>Saudia SV-417</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>1029</v>
+        <v>1443</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>-1215</v>
+        <v>-801</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J139" s="5" t="inlineStr">
         <is>
@@ -6766,26 +6766,26 @@
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-287</t>
+          <t>Saudia SV-3451</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>1119</v>
+        <v>1443</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>-1125</v>
+        <v>-801</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J140" s="5" t="inlineStr">
         <is>
@@ -6811,30 +6811,30 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>flyadeal F3-615</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>1119</v>
+        <v>1449</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>-1125</v>
+        <v>-795</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H141" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J141" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J141" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K141" s="2" t="inlineStr">
@@ -6856,26 +6856,26 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>1219</v>
+        <v>1580</v>
       </c>
       <c r="E142" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>-1025</v>
+        <v>-664</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H142" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I142" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J142" s="5" t="inlineStr">
         <is>
@@ -6901,26 +6901,26 @@
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>EgyptAir MS-652</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>1219</v>
+        <v>1637</v>
       </c>
       <c r="E143" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>-1025</v>
+        <v>-607</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H143" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I143" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J143" s="5" t="inlineStr">
         <is>
@@ -6946,26 +6946,26 @@
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>EgyptAir MS-648</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>1219</v>
+        <v>1645</v>
       </c>
       <c r="E144" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>-1025</v>
+        <v>-599</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J144" s="5" t="inlineStr">
         <is>
@@ -6991,30 +6991,30 @@
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>EgyptAir MS-8246</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>1219</v>
+        <v>2164</v>
       </c>
       <c r="E145" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>-1025</v>
+        <v>-80</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H145" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I145" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J145" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J145" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K145" s="2" t="inlineStr">
@@ -7026,7 +7026,7 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -7036,30 +7036,30 @@
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flynas XY-273</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>1263</v>
+        <v>1529</v>
       </c>
       <c r="E146" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>-981</v>
+        <v>-715</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J146" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K146" s="2" t="inlineStr">
@@ -7071,7 +7071,7 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -7081,30 +7081,30 @@
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>1263</v>
+        <v>1529</v>
       </c>
       <c r="E147" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>-981</v>
+        <v>-715</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H147" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I147" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J147" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K147" s="2" t="inlineStr">
@@ -7116,7 +7116,7 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -7126,30 +7126,30 @@
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>1333</v>
+        <v>1529</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>-911</v>
+        <v>-715</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H148" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I148" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J148" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K148" s="2" t="inlineStr">
@@ -7161,7 +7161,7 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -7171,17 +7171,17 @@
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-163</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>1335</v>
+        <v>1529</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>-909</v>
+        <v>-715</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>30</v>
@@ -7206,7 +7206,7 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -7216,26 +7216,26 @@
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-321</t>
+          <t>Nesma Airlines NE-163</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>1443</v>
+        <v>1535</v>
       </c>
       <c r="E150" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>-801</v>
+        <v>-709</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I150" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J150" s="5" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -7261,26 +7261,26 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-313</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>1443</v>
+        <v>1538</v>
       </c>
       <c r="E151" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>-801</v>
+        <v>-706</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I151" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J151" s="5" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -7306,30 +7306,30 @@
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-311</t>
+          <t>flyadeal F3-607</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>1443</v>
+        <v>1749</v>
       </c>
       <c r="E152" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>-801</v>
+        <v>-495</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H152" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I152" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J152" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J152" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K152" s="2" t="inlineStr">
@@ -7341,7 +7341,7 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -7351,30 +7351,30 @@
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-417</t>
+          <t>flyadeal F3-605</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>1443</v>
+        <v>1749</v>
       </c>
       <c r="E153" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>-801</v>
+        <v>-495</v>
       </c>
       <c r="G153" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H153" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I153" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J153" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J153" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K153" s="2" t="inlineStr">
@@ -7386,7 +7386,7 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -7396,30 +7396,30 @@
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-3451</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>1443</v>
+        <v>1845</v>
       </c>
       <c r="E154" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>-801</v>
+        <v>-399</v>
       </c>
       <c r="G154" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H154" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I154" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J154" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J154" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K154" s="2" t="inlineStr">
@@ -7431,7 +7431,7 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -7441,30 +7441,30 @@
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-615</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>1449</v>
+        <v>1874</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>-795</v>
+        <v>-370</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H155" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I155" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J155" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J155" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K155" s="2" t="inlineStr">
@@ -7476,7 +7476,7 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -7486,17 +7486,17 @@
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-650</t>
+          <t>EgyptAir MS-8246</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>1580</v>
+        <v>2164</v>
       </c>
       <c r="E156" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>-664</v>
+        <v>-80</v>
       </c>
       <c r="G156" s="2" t="n">
         <v>46</v>
@@ -7507,9 +7507,9 @@
       <c r="I156" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J156" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J156" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K156" s="2" t="inlineStr">
@@ -7521,36 +7521,36 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-652</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>1637</v>
+        <v>1843</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>-607</v>
+        <v>-701</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J157" s="5" t="inlineStr">
         <is>
@@ -7566,36 +7566,36 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-648</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>1645</v>
+        <v>1874</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>-599</v>
+        <v>-670</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I158" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J158" s="5" t="inlineStr">
         <is>
@@ -7611,40 +7611,40 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-8246</t>
+          <t>flynas XY-287</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>2164</v>
+        <v>2029</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>-80</v>
+        <v>-515</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H159" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I159" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J159" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J159" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K159" s="2" t="inlineStr">
@@ -7656,40 +7656,40 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>1529</v>
+        <v>2029</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>-715</v>
+        <v>-515</v>
       </c>
       <c r="G160" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H160" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I160" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J160" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K160" s="2" t="inlineStr">
@@ -7701,40 +7701,40 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-163</t>
+          <t>flynas XY-273</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>1535</v>
+        <v>2029</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>-709</v>
+        <v>-515</v>
       </c>
       <c r="G161" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H161" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I161" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J161" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K161" s="2" t="inlineStr">
@@ -7746,40 +7746,40 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>1538</v>
+        <v>2029</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>-706</v>
+        <v>-515</v>
       </c>
       <c r="G162" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H162" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I162" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J162" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K162" s="2" t="inlineStr">
@@ -7791,40 +7791,40 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-273</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>1719</v>
+        <v>2029</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>-525</v>
+        <v>-515</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H163" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I163" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J163" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J163" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K163" s="2" t="inlineStr">
@@ -7836,40 +7836,40 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>1719</v>
+        <v>2029</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>-525</v>
+        <v>-515</v>
       </c>
       <c r="G164" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H164" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I164" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J164" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J164" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K164" s="2" t="inlineStr">
@@ -7881,12 +7881,12 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
@@ -7895,26 +7895,26 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>1719</v>
+        <v>2029</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>-525</v>
+        <v>-515</v>
       </c>
       <c r="G165" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H165" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I165" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J165" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J165" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K165" s="2" t="inlineStr">
@@ -7926,40 +7926,40 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-607</t>
+          <t>Nile Air NP-252</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>1749</v>
+        <v>2144</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>-495</v>
+        <v>-400</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H166" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I166" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J166" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J166" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K166" s="2" t="inlineStr">
@@ -7971,36 +7971,36 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-605</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>1749</v>
+        <v>2145</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>-495</v>
+        <v>-399</v>
       </c>
       <c r="G167" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H167" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I167" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J167" s="3" t="inlineStr">
         <is>
@@ -8016,40 +8016,40 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-161</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>1845</v>
+        <v>2219</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>-399</v>
+        <v>-325</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H168" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I168" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J168" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K168" s="2" t="inlineStr">
@@ -8061,12 +8061,12 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -8075,13 +8075,13 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>1874</v>
+        <v>2299</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>-370</v>
+        <v>-245</v>
       </c>
       <c r="G169" s="2" t="n">
         <v>30</v>
@@ -8106,27 +8106,27 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-8246</t>
+          <t>EgyptAir MS-8240</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>2164</v>
+        <v>2572</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>2244</v>
+        <v>2544</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>-80</v>
+        <v>28</v>
       </c>
       <c r="G170" s="2" t="n">
         <v>46</v>
@@ -8151,40 +8151,40 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>EgyptAir MS-8246</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>1843</v>
+        <v>1161</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>2544</v>
+        <v>976</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>-701</v>
+        <v>185</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I171" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J171" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K171" s="2" t="inlineStr">
@@ -8196,7 +8196,7 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>15-APR-26</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
@@ -8206,753 +8206,33 @@
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>Saudia SV-417</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>1874</v>
+        <v>531</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>2544</v>
+        <v>494</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>-670</v>
+        <v>37</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I172" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J172" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K172" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-263</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="n">
-        <v>2029</v>
-      </c>
-      <c r="E173" s="2" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F173" s="2" t="n">
-        <v>-515</v>
-      </c>
-      <c r="G173" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H173" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I173" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J173" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C174" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-271</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="n">
-        <v>2029</v>
-      </c>
-      <c r="E174" s="2" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F174" s="2" t="n">
-        <v>-515</v>
-      </c>
-      <c r="G174" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H174" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I174" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J174" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-269</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="n">
-        <v>2029</v>
-      </c>
-      <c r="E175" s="2" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F175" s="2" t="n">
-        <v>-515</v>
-      </c>
-      <c r="G175" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H175" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I175" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J175" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-252</t>
-        </is>
-      </c>
-      <c r="D176" s="2" t="n">
-        <v>2144</v>
-      </c>
-      <c r="E176" s="2" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F176" s="2" t="n">
-        <v>-400</v>
-      </c>
-      <c r="G176" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H176" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I176" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-161</t>
-        </is>
-      </c>
-      <c r="D177" s="2" t="n">
-        <v>2145</v>
-      </c>
-      <c r="E177" s="2" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F177" s="2" t="n">
-        <v>-399</v>
-      </c>
-      <c r="G177" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H177" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I177" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B178" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C178" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-287</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="n">
-        <v>2219</v>
-      </c>
-      <c r="E178" s="2" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F178" s="2" t="n">
-        <v>-325</v>
-      </c>
-      <c r="G178" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H178" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I178" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J178" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-265</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="n">
-        <v>2219</v>
-      </c>
-      <c r="E179" s="2" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F179" s="2" t="n">
-        <v>-325</v>
-      </c>
-      <c r="G179" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H179" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I179" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J179" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-267</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="n">
-        <v>2219</v>
-      </c>
-      <c r="E180" s="2" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F180" s="2" t="n">
-        <v>-325</v>
-      </c>
-      <c r="G180" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H180" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I180" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J180" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-273</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="n">
-        <v>2219</v>
-      </c>
-      <c r="E181" s="2" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F181" s="2" t="n">
-        <v>-325</v>
-      </c>
-      <c r="G181" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H181" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I181" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J181" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-275</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="n">
-        <v>2219</v>
-      </c>
-      <c r="E182" s="2" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F182" s="2" t="n">
-        <v>-325</v>
-      </c>
-      <c r="G182" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H182" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I182" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J182" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-411</t>
-        </is>
-      </c>
-      <c r="D183" s="2" t="n">
-        <v>2299</v>
-      </c>
-      <c r="E183" s="2" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F183" s="2" t="n">
-        <v>-245</v>
-      </c>
-      <c r="G183" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H183" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I183" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-8240</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="n">
-        <v>2572</v>
-      </c>
-      <c r="E184" s="2" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F184" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="G184" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H184" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I184" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J184" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="inlineStr">
-        <is>
-          <t>15-APR-26</t>
-        </is>
-      </c>
-      <c r="B185" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C185" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-311</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="n">
-        <v>456</v>
-      </c>
-      <c r="E185" s="2" t="n">
-        <v>494</v>
-      </c>
-      <c r="F185" s="2" t="n">
-        <v>-38</v>
-      </c>
-      <c r="G185" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H185" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I185" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J185" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>15-APR-26</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-321</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="n">
-        <v>531</v>
-      </c>
-      <c r="E186" s="2" t="n">
-        <v>494</v>
-      </c>
-      <c r="F186" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="G186" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H186" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I186" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J186" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="inlineStr">
-        <is>
-          <t>15-APR-26</t>
-        </is>
-      </c>
-      <c r="B187" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C187" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-313</t>
-        </is>
-      </c>
-      <c r="D187" s="2" t="n">
-        <v>531</v>
-      </c>
-      <c r="E187" s="2" t="n">
-        <v>494</v>
-      </c>
-      <c r="F187" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="G187" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H187" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I187" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J187" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="inlineStr">
-        <is>
-          <t>15-APR-26</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>SM-466</t>
-        </is>
-      </c>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-417</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="n">
-        <v>531</v>
-      </c>
-      <c r="E188" s="2" t="n">
-        <v>494</v>
-      </c>
-      <c r="F188" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="G188" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H188" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I188" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J188" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_RUH_ATZ_threats.xlsx
+++ b/excel_routes/route_RUH_ATZ_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,26 +556,26 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>flynas XY-273</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>383</v>
+        <v>259</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>608</v>
+        <v>664</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-225</v>
+        <v>-405</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,26 +601,26 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>479</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>608</v>
+        <v>664</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-129</v>
+        <v>-375</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,26 +646,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>479</v>
+        <v>289</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>608</v>
+        <v>664</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-129</v>
+        <v>-375</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,26 +691,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>479</v>
+        <v>289</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>608</v>
+        <v>664</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-129</v>
+        <v>-375</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -726,36 +726,36 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>552</v>
+        <v>664</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-232</v>
+        <v>-375</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -771,36 +771,36 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>552</v>
+        <v>664</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-232</v>
+        <v>-366</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -816,12 +816,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -833,10 +833,10 @@
         <v>320</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>552</v>
+        <v>664</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-232</v>
+        <v>-344</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>40</v>
@@ -847,9 +847,9 @@
       <c r="I8" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -861,36 +861,36 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-252</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>552</v>
+        <v>664</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-232</v>
+        <v>-330</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -906,36 +906,36 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>552</v>
+        <v>664</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-73</v>
+        <v>-153</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -951,27 +951,27 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-650</t>
+          <t>Saudia SV-417</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>552</v>
+        <v>664</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-59</v>
+        <v>-98</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>46</v>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,26 +1006,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>EgyptAir MS-648</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>304</v>
+        <v>568</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>608</v>
+        <v>664</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-304</v>
+        <v>-96</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1041,36 +1041,36 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>flyadeal F3-605</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-304</v>
+        <v>-521</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1086,40 +1086,40 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-163</t>
+          <t>flyadeal F3-607</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-288</v>
+        <v>-501</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1131,40 +1131,40 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-288</v>
+        <v>-491</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1176,36 +1176,36 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>flynas XY-273</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>449</v>
+        <v>289</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-159</v>
+        <v>-491</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
@@ -1221,36 +1221,36 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-273</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>449</v>
+        <v>289</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-159</v>
+        <v>-491</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1266,36 +1266,36 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>449</v>
+        <v>289</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-159</v>
+        <v>-491</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1311,36 +1311,36 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>449</v>
+        <v>289</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-159</v>
+        <v>-491</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -1356,27 +1356,27 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>449</v>
+        <v>320</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-159</v>
+        <v>-460</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>40</v>
@@ -1387,9 +1387,9 @@
       <c r="I20" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,40 +1401,40 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>469</v>
+        <v>372</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-139</v>
+        <v>-408</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,27 +1446,27 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>Nile Air NP-252</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-139</v>
+        <v>-364</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>40</v>
@@ -1477,9 +1477,9 @@
       <c r="I22" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,40 +1491,40 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>298</v>
+        <v>519</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>552</v>
+        <v>780</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-254</v>
+        <v>-261</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,36 +1536,36 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-161</t>
+          <t>EgyptAir MS-648</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>320</v>
+        <v>624</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>552</v>
+        <v>780</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-232</v>
+        <v>-156</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
@@ -1581,36 +1581,36 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>EgyptAir MS-652</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>323</v>
+        <v>715</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>552</v>
+        <v>780</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-229</v>
+        <v>-65</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J25" s="3" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,26 +1636,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>flynas XY-287</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>449</v>
+        <v>259</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-103</v>
+        <v>-461</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,26 +1681,26 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-273</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>449</v>
+        <v>289</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-103</v>
+        <v>-431</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1730,22 +1730,22 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>449</v>
+        <v>289</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-103</v>
+        <v>-431</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,26 +1771,26 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>479</v>
+        <v>289</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-73</v>
+        <v>-431</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,26 +1816,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>479</v>
+        <v>289</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-73</v>
+        <v>-431</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,26 +1861,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>flynas XY-273</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>479</v>
+        <v>329</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-73</v>
+        <v>-391</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
@@ -1896,36 +1896,36 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-161</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-232</v>
+        <v>-372</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1941,36 +1941,36 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-252</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-136</v>
+        <v>-372</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1986,40 +1986,40 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-648</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>558</v>
+        <v>350</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>6</v>
+        <v>-370</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2041,30 +2041,30 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>Nesma Airlines NE-163</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>608</v>
+        <v>720</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-260</v>
+        <v>-370</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>flyadeal F3-611</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>348</v>
+        <v>437</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>608</v>
+        <v>720</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-260</v>
+        <v>-283</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>30</v>
@@ -2131,30 +2131,30 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-163</t>
+          <t>flyadeal F3-607</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>350</v>
+        <v>437</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>608</v>
+        <v>720</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-258</v>
+        <v>-283</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J37" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2176,26 +2176,26 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flyadeal F3-605</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>608</v>
+        <v>720</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-192</v>
+        <v>-283</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2221,17 +2221,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flyadeal F3-615</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>342</v>
+        <v>437</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-210</v>
+        <v>-283</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>30</v>
@@ -2256,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2266,17 +2266,17 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-161</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>350</v>
+        <v>479</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-202</v>
+        <v>-241</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>40</v>
@@ -2301,7 +2301,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,17 +2311,17 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>416</v>
+        <v>519</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-136</v>
+        <v>-201</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>40</v>
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,26 +2356,26 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-163</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>500</v>
+        <v>659</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>608</v>
+        <v>720</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-108</v>
+        <v>-61</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,26 +2401,26 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>EgyptAir MS-652</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>518</v>
+        <v>715</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-146</v>
+        <v>-5</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -2436,36 +2436,36 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>EgyptAir MS-648</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>443</v>
+        <v>723</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-221</v>
+        <v>3</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
@@ -2481,12 +2481,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>664</v>
+        <v>608</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-164</v>
+        <v>-258</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>40</v>
@@ -2512,9 +2512,9 @@
       <c r="I45" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2540,13 +2540,13 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>478</v>
+        <v>379</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>720</v>
+        <v>608</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-242</v>
+        <v>-229</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>30</v>
@@ -2571,7 +2571,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2585,13 +2585,13 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>497</v>
+        <v>398</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>720</v>
+        <v>608</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-223</v>
+        <v>-210</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>30</v>
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,17 +2626,17 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-163</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>500</v>
+        <v>416</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>720</v>
+        <v>608</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-220</v>
+        <v>-192</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>40</v>
@@ -2661,36 +2661,36 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-287</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>519</v>
+        <v>398</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>720</v>
+        <v>608</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-201</v>
+        <v>-210</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="inlineStr">
         <is>
@@ -2706,27 +2706,27 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>519</v>
+        <v>401</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>720</v>
+        <v>608</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-201</v>
+        <v>-207</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>40</v>
@@ -2751,27 +2751,27 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>559</v>
+        <v>416</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>720</v>
+        <v>608</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-161</v>
+        <v>-192</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>40</v>
@@ -2796,27 +2796,27 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-273</t>
+          <t>Nile Air NP-252</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>559</v>
+        <v>416</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>720</v>
+        <v>608</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-161</v>
+        <v>-192</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>40</v>
@@ -2841,7 +2841,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -2851,17 +2851,17 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>559</v>
+        <v>518</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>720</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-161</v>
+        <v>-202</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>40</v>
@@ -2886,7 +2886,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2896,26 +2896,26 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>EgyptAir MS-8246</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>559</v>
+        <v>929</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>720</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-161</v>
+        <v>209</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -2941,26 +2941,26 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>559</v>
+        <v>443</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>720</v>
+        <v>662</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-161</v>
+        <v>-219</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -2986,17 +2986,17 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>720</v>
+        <v>662</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-121</v>
+        <v>-103</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>40</v>
@@ -3031,26 +3031,26 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-650</t>
+          <t>flynas XY-273</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>596</v>
+        <v>662</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-46</v>
+        <v>-103</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
@@ -3076,26 +3076,26 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-417</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>629</v>
+        <v>559</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>596</v>
+        <v>662</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>33</v>
+        <v>-103</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
@@ -3111,27 +3111,27 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-252</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>596</v>
+        <v>662</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-78</v>
+        <v>-103</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>40</v>
@@ -3156,36 +3156,36 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-650</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>596</v>
+        <v>662</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-54</v>
+        <v>-103</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
@@ -3201,36 +3201,36 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-311</t>
+          <t>flynas XY-287</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>596</v>
+        <v>662</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>33</v>
+        <v>-63</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
@@ -3246,36 +3246,36 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>398</v>
+        <v>667</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>662</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>-264</v>
+        <v>5</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -3301,26 +3301,26 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-161</t>
+          <t>Nile Air NP-252</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>662</v>
+        <v>596</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-261</v>
+        <v>-180</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -3346,26 +3346,26 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>662</v>
+        <v>596</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-219</v>
+        <v>-77</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -3391,26 +3391,26 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-652</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>662</v>
+        <v>596</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-112</v>
+        <v>-77</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3436,17 +3436,17 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-648</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>662</v>
+        <v>596</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-104</v>
+        <v>-36</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>46</v>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
@@ -3661,30 +3661,30 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-611</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-735</v>
+        <v>-755</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J71" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
@@ -3706,30 +3706,30 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-615</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-735</v>
+        <v>-755</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J72" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J72" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
@@ -3751,30 +3751,30 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flyadeal F3-611</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>616</v>
+        <v>509</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>-628</v>
+        <v>-735</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J73" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K73" s="2" t="inlineStr">
@@ -3796,26 +3796,26 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flyadeal F3-615</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>647</v>
+        <v>509</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-597</v>
+        <v>-735</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J74" s="4" t="inlineStr">
         <is>
@@ -3845,13 +3845,13 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-597</v>
+        <v>-635</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>30</v>
@@ -3862,9 +3862,9 @@
       <c r="I75" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J75" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J75" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K75" s="2" t="inlineStr">
@@ -3886,26 +3886,26 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>679</v>
+        <v>616</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-565</v>
+        <v>-628</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J76" s="5" t="inlineStr">
         <is>
@@ -3931,30 +3931,30 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>-565</v>
+        <v>-598</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J77" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J77" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-314</v>
+        <v>-296</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>46</v>
@@ -4250,13 +4250,13 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>-144</v>
+        <v>-126</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>46</v>
@@ -4295,13 +4295,13 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>-88</v>
+        <v>-70</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>46</v>
@@ -4340,13 +4340,13 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>1412</v>
+        <v>1431</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>46</v>
@@ -4381,26 +4381,26 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>539</v>
+        <v>678</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>-705</v>
+        <v>-566</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J87" s="4" t="inlineStr">
         <is>
@@ -4426,26 +4426,26 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>539</v>
+        <v>716</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>-705</v>
+        <v>-528</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J88" s="4" t="inlineStr">
         <is>
@@ -4471,30 +4471,30 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>539</v>
+        <v>729</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>-705</v>
+        <v>-515</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J89" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K89" s="2" t="inlineStr">
@@ -4516,26 +4516,26 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>589</v>
+        <v>745</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>-655</v>
+        <v>-499</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J90" s="4" t="inlineStr">
         <is>
@@ -4561,26 +4561,26 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>589</v>
+        <v>749</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>-655</v>
+        <v>-495</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J91" s="4" t="inlineStr">
         <is>
@@ -4606,30 +4606,30 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>639</v>
+        <v>779</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>-605</v>
+        <v>-465</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J92" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
@@ -4651,30 +4651,30 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>678</v>
+        <v>779</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>-566</v>
+        <v>-465</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J93" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K93" s="2" t="inlineStr">
@@ -4696,17 +4696,17 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flyadeal F3-615</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>716</v>
+        <v>827</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>-528</v>
+        <v>-417</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>30</v>
@@ -4741,26 +4741,26 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-161</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>745</v>
+        <v>829</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>-499</v>
+        <v>-415</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J95" s="4" t="inlineStr">
         <is>
@@ -4786,26 +4786,26 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>749</v>
+        <v>829</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>-495</v>
+        <v>-415</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J96" s="4" t="inlineStr">
         <is>
@@ -4831,30 +4831,30 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-611</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>749</v>
+        <v>879</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>-495</v>
+        <v>-365</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J97" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K97" s="2" t="inlineStr">
@@ -4876,26 +4876,26 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-615</t>
+          <t>flyadeal F3-611</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>749</v>
+        <v>927</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>-495</v>
+        <v>-317</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J98" s="3" t="inlineStr">
         <is>
@@ -4925,13 +4925,13 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-144</v>
+        <v>-126</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>46</v>
@@ -4970,13 +4970,13 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>-88</v>
+        <v>-70</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>46</v>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>1164</v>
+        <v>1182</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-80</v>
+        <v>-62</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>46</v>
@@ -5060,13 +5060,13 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>1412</v>
+        <v>1431</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>1244</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>46</v>
@@ -5091,36 +5091,36 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-605</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>649</v>
+        <v>759</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>-745</v>
+        <v>-635</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J103" s="4" t="inlineStr">
         <is>
@@ -5136,36 +5136,36 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>759</v>
+        <v>828</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>-635</v>
+        <v>-566</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J104" s="4" t="inlineStr">
         <is>
@@ -5181,36 +5181,36 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>759</v>
+        <v>828</v>
       </c>
       <c r="E105" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>-635</v>
+        <v>-566</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J105" s="4" t="inlineStr">
         <is>
@@ -5226,36 +5226,36 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>-635</v>
+        <v>-560</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I106" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J106" s="4" t="inlineStr">
         <is>
@@ -5271,36 +5271,36 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>759</v>
+        <v>835</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-635</v>
+        <v>-559</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J107" s="4" t="inlineStr">
         <is>
@@ -5316,40 +5316,40 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flyadeal F3-611</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-545</v>
+        <v>-517</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I108" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J108" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J108" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K108" s="2" t="inlineStr">
@@ -5361,40 +5361,40 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>flyadeal F3-615</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>-545</v>
+        <v>-517</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J109" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J109" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K109" s="2" t="inlineStr">
@@ -5406,40 +5406,40 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-611</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>949</v>
+        <v>879</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>-445</v>
+        <v>-515</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J110" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J110" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K110" s="2" t="inlineStr">
@@ -5451,40 +5451,40 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>977</v>
+        <v>879</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>-417</v>
+        <v>-515</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J111" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K111" s="2" t="inlineStr">
@@ -5496,40 +5496,40 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>1043</v>
+        <v>949</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>-351</v>
+        <v>-445</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H112" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J112" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K112" s="2" t="inlineStr">
@@ -5541,40 +5541,40 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-163</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>1175</v>
+        <v>949</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>-219</v>
+        <v>-445</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H113" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J113" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K113" s="2" t="inlineStr">
@@ -5586,40 +5586,40 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-650</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>1401</v>
+        <v>1039</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>7</v>
+        <v>-355</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H114" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I114" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J114" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J114" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K114" s="2" t="inlineStr">
@@ -5631,36 +5631,36 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-652</t>
+          <t>Nile Air NP-252</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>1401</v>
+        <v>1043</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>7</v>
+        <v>-351</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H115" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I115" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J115" s="3" t="inlineStr">
         <is>
@@ -5676,27 +5676,27 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-648</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>1409</v>
+        <v>1419</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>46</v>
@@ -5721,27 +5721,27 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-8246</t>
+          <t>EgyptAir MS-8240</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>1537</v>
+        <v>1556</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>1394</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>46</v>
@@ -5766,7 +5766,7 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -5776,30 +5776,30 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>flyadeal F3-605</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>849</v>
+        <v>749</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>2244</v>
+        <v>1394</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>-1395</v>
+        <v>-645</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H118" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J118" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J118" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K118" s="2" t="inlineStr">
@@ -5811,7 +5811,7 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -5821,30 +5821,30 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-605</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>869</v>
+        <v>759</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>2244</v>
+        <v>1394</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>-1375</v>
+        <v>-635</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H119" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J119" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J119" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K119" s="2" t="inlineStr">
@@ -5856,7 +5856,7 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -5866,17 +5866,17 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-287</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>929</v>
+        <v>849</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>2244</v>
+        <v>1394</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>-1315</v>
+        <v>-545</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>20</v>
@@ -5887,9 +5887,9 @@
       <c r="I120" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J120" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J120" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K120" s="2" t="inlineStr">
@@ -5901,7 +5901,7 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -5911,17 +5911,17 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>929</v>
+        <v>849</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>2244</v>
+        <v>1394</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>-1315</v>
+        <v>-545</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>20</v>
@@ -5932,9 +5932,9 @@
       <c r="I121" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J121" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J121" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K121" s="2" t="inlineStr">
@@ -5946,7 +5946,7 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -5956,17 +5956,17 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>929</v>
+        <v>849</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>2244</v>
+        <v>1394</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>-1315</v>
+        <v>-545</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>20</v>
@@ -5977,9 +5977,9 @@
       <c r="I122" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J122" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J122" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K122" s="2" t="inlineStr">
@@ -5991,7 +5991,7 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -6001,17 +6001,17 @@
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-273</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>929</v>
+        <v>849</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>2244</v>
+        <v>1394</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>-1315</v>
+        <v>-545</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>20</v>
@@ -6022,9 +6022,9 @@
       <c r="I123" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J123" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J123" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K123" s="2" t="inlineStr">
@@ -6036,7 +6036,7 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -6046,17 +6046,17 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
         <v>929</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>2244</v>
+        <v>1394</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>-1315</v>
+        <v>-465</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>20</v>
@@ -6067,9 +6067,9 @@
       <c r="I124" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J124" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J124" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K124" s="2" t="inlineStr">
@@ -6081,7 +6081,7 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -6091,30 +6091,30 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>flyadeal F3-611</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>929</v>
+        <v>949</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>2244</v>
+        <v>1394</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>-1315</v>
+        <v>-445</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J125" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J125" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K125" s="2" t="inlineStr">
@@ -6126,7 +6126,7 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -6136,30 +6136,30 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>929</v>
+        <v>977</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>2244</v>
+        <v>1394</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>-1315</v>
+        <v>-417</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J126" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J126" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K126" s="2" t="inlineStr">
@@ -6171,7 +6171,7 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -6181,30 +6181,30 @@
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-611</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>949</v>
+        <v>1043</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>2244</v>
+        <v>1394</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>-1295</v>
+        <v>-351</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J127" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J127" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K127" s="2" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -6226,30 +6226,30 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-607</t>
+          <t>Nesma Airlines NE-163</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>949</v>
+        <v>1175</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>2244</v>
+        <v>1394</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>-1295</v>
+        <v>-219</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J128" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J128" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K128" s="2" t="inlineStr">
@@ -6261,7 +6261,7 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -6271,30 +6271,30 @@
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>1263</v>
+        <v>1419</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>2244</v>
+        <v>1394</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>-981</v>
+        <v>25</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J129" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K129" s="2" t="inlineStr">
@@ -6306,40 +6306,40 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>flyadeal F3-607</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>1263</v>
+        <v>799</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>-981</v>
+        <v>-795</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J130" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K130" s="2" t="inlineStr">
@@ -6351,40 +6351,40 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>1333</v>
+        <v>849</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>-911</v>
+        <v>-745</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J131" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K131" s="2" t="inlineStr">
@@ -6396,40 +6396,40 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-163</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>1335</v>
+        <v>849</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>-909</v>
+        <v>-745</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H132" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I132" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J132" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K132" s="2" t="inlineStr">
@@ -6441,40 +6441,40 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-321</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>1443</v>
+        <v>849</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>-801</v>
+        <v>-745</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I133" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J133" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J133" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K133" s="2" t="inlineStr">
@@ -6486,40 +6486,40 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-313</t>
+          <t>flyadeal F3-605</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>1443</v>
+        <v>869</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>-801</v>
+        <v>-725</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I134" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J134" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J134" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K134" s="2" t="inlineStr">
@@ -6531,40 +6531,40 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-311</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>1443</v>
+        <v>929</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>-801</v>
+        <v>-665</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J135" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J135" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K135" s="2" t="inlineStr">
@@ -6576,40 +6576,40 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-417</t>
+          <t>flyadeal F3-611</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>1443</v>
+        <v>949</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>-801</v>
+        <v>-645</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H136" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J136" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J136" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K136" s="2" t="inlineStr">
@@ -6621,40 +6621,40 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-3451</t>
+          <t>flyadeal F3-615</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>1443</v>
+        <v>949</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>-801</v>
+        <v>-645</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H137" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I137" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J137" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J137" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K137" s="2" t="inlineStr">
@@ -6666,36 +6666,36 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-615</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>1449</v>
+        <v>1043</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>-795</v>
+        <v>-551</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H138" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J138" s="4" t="inlineStr">
         <is>
@@ -6711,40 +6711,40 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-648</t>
+          <t>Nile Air NP-252</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>1588</v>
+        <v>1174</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>-656</v>
+        <v>-420</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J139" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J139" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K139" s="2" t="inlineStr">
@@ -6756,40 +6756,40 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-650</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>1945</v>
+        <v>1229</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>-299</v>
+        <v>-365</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J140" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J140" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K140" s="2" t="inlineStr">
@@ -6801,40 +6801,40 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-652</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>1945</v>
+        <v>1229</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>-299</v>
+        <v>-365</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H141" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J141" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J141" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K141" s="2" t="inlineStr">
@@ -6846,40 +6846,40 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-8246</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>2164</v>
+        <v>1257</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>-80</v>
+        <v>-337</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H142" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I142" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J142" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J142" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K142" s="2" t="inlineStr">
@@ -6891,40 +6891,40 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>1229</v>
+        <v>1257</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>-1015</v>
+        <v>-337</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H143" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I143" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J143" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J143" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K143" s="2" t="inlineStr">
@@ -6936,40 +6936,40 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-273</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>1419</v>
+        <v>1335</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>-825</v>
+        <v>-259</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J144" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J144" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K144" s="2" t="inlineStr">
@@ -6981,40 +6981,40 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>EgyptAir MS-8240</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>1419</v>
+        <v>1713</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>2244</v>
+        <v>1594</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>-825</v>
+        <v>119</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H145" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I145" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J145" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J145" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K145" s="2" t="inlineStr">
@@ -7026,7 +7026,7 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -7036,26 +7036,26 @@
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>1419</v>
+        <v>1333</v>
       </c>
       <c r="E146" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>-825</v>
+        <v>-911</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I146" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J146" s="5" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -7081,30 +7081,30 @@
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>Nesma Airlines NE-163</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>1529</v>
+        <v>1335</v>
       </c>
       <c r="E147" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>-715</v>
+        <v>-909</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H147" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I147" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J147" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J147" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K147" s="2" t="inlineStr">
@@ -7116,7 +7116,7 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -7126,26 +7126,26 @@
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>Saudia SV-321</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>1529</v>
+        <v>1443</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>-715</v>
+        <v>-801</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H148" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I148" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J148" s="5" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -7171,26 +7171,26 @@
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-161</t>
+          <t>Saudia SV-313</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>1535</v>
+        <v>1443</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>-709</v>
+        <v>-801</v>
       </c>
       <c r="G149" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H149" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I149" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J149" s="5" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -7216,26 +7216,26 @@
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>Saudia SV-311</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>1594</v>
+        <v>1443</v>
       </c>
       <c r="E150" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>-650</v>
+        <v>-801</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I150" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J150" s="5" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -7261,26 +7261,26 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-287</t>
+          <t>Saudia SV-417</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>1719</v>
+        <v>1443</v>
       </c>
       <c r="E151" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>-525</v>
+        <v>-801</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I151" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J151" s="5" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -7306,26 +7306,26 @@
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>Saudia SV-3451</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>1719</v>
+        <v>1443</v>
       </c>
       <c r="E152" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>-525</v>
+        <v>-801</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H152" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I152" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J152" s="5" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -7351,26 +7351,26 @@
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>EgyptAir MS-648</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>1719</v>
+        <v>1663</v>
       </c>
       <c r="E153" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>-525</v>
+        <v>-581</v>
       </c>
       <c r="G153" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H153" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I153" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J153" s="5" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -7396,30 +7396,30 @@
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-607</t>
+          <t>EgyptAir MS-650</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>1749</v>
+        <v>1963</v>
       </c>
       <c r="E154" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>-495</v>
+        <v>-281</v>
       </c>
       <c r="G154" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H154" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I154" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J154" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J154" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K154" s="2" t="inlineStr">
@@ -7431,7 +7431,7 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -7441,30 +7441,30 @@
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-605</t>
+          <t>EgyptAir MS-652</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>1749</v>
+        <v>2020</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>-495</v>
+        <v>-224</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H155" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I155" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J155" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J155" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K155" s="2" t="inlineStr">
@@ -7486,30 +7486,30 @@
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-163</t>
+          <t>flynas XY-273</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>1845</v>
+        <v>1229</v>
       </c>
       <c r="E156" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>-399</v>
+        <v>-1015</v>
       </c>
       <c r="G156" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H156" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I156" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J156" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K156" s="2" t="inlineStr">
@@ -7531,30 +7531,30 @@
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>1874</v>
+        <v>1229</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>-370</v>
+        <v>-1015</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J157" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K157" s="2" t="inlineStr">
@@ -7576,30 +7576,30 @@
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-8246</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>2164</v>
+        <v>1229</v>
       </c>
       <c r="E158" s="2" t="n">
         <v>2244</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>-80</v>
+        <v>-1015</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I158" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J158" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J158" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K158" s="2" t="inlineStr">
@@ -7611,12 +7611,12 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -7628,10 +7628,10 @@
         <v>1529</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>2544</v>
+        <v>2244</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>-1015</v>
+        <v>-715</v>
       </c>
       <c r="G159" s="2" t="n">
         <v>20</v>
@@ -7642,9 +7642,9 @@
       <c r="I159" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J159" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J159" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K159" s="2" t="inlineStr">
@@ -7656,27 +7656,27 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
         <v>1529</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>2544</v>
+        <v>2244</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>-1015</v>
+        <v>-715</v>
       </c>
       <c r="G160" s="2" t="n">
         <v>20</v>
@@ -7687,9 +7687,9 @@
       <c r="I160" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J160" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J160" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K160" s="2" t="inlineStr">
@@ -7701,27 +7701,27 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
         <v>1529</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>2544</v>
+        <v>2244</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>-1015</v>
+        <v>-715</v>
       </c>
       <c r="G161" s="2" t="n">
         <v>20</v>
@@ -7732,9 +7732,9 @@
       <c r="I161" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J161" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J161" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K161" s="2" t="inlineStr">
@@ -7746,27 +7746,27 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-275</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
         <v>1529</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>2544</v>
+        <v>2244</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>-1015</v>
+        <v>-715</v>
       </c>
       <c r="G162" s="2" t="n">
         <v>20</v>
@@ -7777,9 +7777,9 @@
       <c r="I162" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J162" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J162" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K162" s="2" t="inlineStr">
@@ -7791,36 +7791,36 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
         <v>1529</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>2544</v>
+        <v>2244</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>-1015</v>
+        <v>-715</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H163" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I163" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J163" s="5" t="inlineStr">
         <is>
@@ -7836,36 +7836,36 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>Nesma Airlines NE-161</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>1529</v>
+        <v>1535</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>2544</v>
+        <v>2244</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>-1015</v>
+        <v>-709</v>
       </c>
       <c r="G164" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H164" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I164" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J164" s="5" t="inlineStr">
         <is>
@@ -7881,40 +7881,40 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>1529</v>
+        <v>1650</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>2544</v>
+        <v>2244</v>
       </c>
       <c r="F165" s="2" t="n">
-        <v>-1015</v>
+        <v>-594</v>
       </c>
       <c r="G165" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H165" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I165" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J165" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J165" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K165" s="2" t="inlineStr">
@@ -7926,40 +7926,40 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-273</t>
+          <t>flyadeal F3-607</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>1719</v>
+        <v>1749</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>2544</v>
+        <v>2244</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>-825</v>
+        <v>-495</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H166" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I166" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J166" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J166" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K166" s="2" t="inlineStr">
@@ -7971,40 +7971,40 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-152</t>
+          <t>flyadeal F3-605</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>1843</v>
+        <v>1749</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>2544</v>
+        <v>2244</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>-701</v>
+        <v>-495</v>
       </c>
       <c r="G167" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H167" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I167" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J167" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K167" s="2" t="inlineStr">
@@ -8016,27 +8016,27 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-416</t>
+          <t>Nesma Airlines NE-163</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>1874</v>
+        <v>1845</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>2544</v>
+        <v>2244</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>-670</v>
+        <v>-399</v>
       </c>
       <c r="G168" s="2" t="n">
         <v>30</v>
@@ -8047,9 +8047,9 @@
       <c r="I168" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J168" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J168" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K168" s="2" t="inlineStr">
@@ -8061,27 +8061,27 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-252</t>
+          <t>Air Arabia Egypt E5-411</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>2144</v>
+        <v>1874</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>2544</v>
+        <v>2244</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>-400</v>
+        <v>-370</v>
       </c>
       <c r="G169" s="2" t="n">
         <v>30</v>
@@ -8092,9 +8092,9 @@
       <c r="I169" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J169" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J169" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K169" s="2" t="inlineStr">
@@ -8106,40 +8106,40 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>SM-466</t>
+          <t>SM-464</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-411</t>
+          <t>EgyptAir MS-8246</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>2300</v>
+        <v>2183</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>2544</v>
+        <v>2244</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>-244</v>
+        <v>-61</v>
       </c>
       <c r="G170" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H170" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I170" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J170" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K170" s="2" t="inlineStr">
@@ -8161,30 +8161,30 @@
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-8240</t>
+          <t>flyadeal F3-605</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>2572</v>
+        <v>1449</v>
       </c>
       <c r="E171" s="2" t="n">
         <v>2544</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>28</v>
+        <v>-1095</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I171" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J171" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J171" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K171" s="2" t="inlineStr">
@@ -8196,40 +8196,40 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>SM-464</t>
+          <t>SM-466</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-8246</t>
+          <t>flyadeal F3-615</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>1161</v>
+        <v>1449</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>976</v>
+        <v>2544</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>185</v>
+        <v>-1095</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I172" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J172" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J172" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K172" s="2" t="inlineStr">
@@ -8241,7 +8241,7 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>06-MAY-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -8251,30 +8251,30 @@
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-311</t>
+          <t>flynas XY-267</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>456</v>
+        <v>1719</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>443</v>
+        <v>2544</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>13</v>
+        <v>-825</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J173" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J173" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K173" s="2" t="inlineStr">
@@ -8286,7 +8286,7 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -8300,22 +8300,22 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>1029</v>
+        <v>1719</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>1844</v>
+        <v>2544</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>-815</v>
+        <v>-825</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H174" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I174" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J174" s="5" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -8341,30 +8341,30 @@
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-265</t>
+          <t>flynas XY-263</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>1229</v>
+        <v>1719</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>1844</v>
+        <v>2544</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>-615</v>
+        <v>-825</v>
       </c>
       <c r="G175" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H175" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I175" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J175" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J175" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K175" s="2" t="inlineStr">
@@ -8376,7 +8376,7 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
@@ -8386,30 +8386,30 @@
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-267</t>
+          <t>flynas XY-269</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>1229</v>
+        <v>1719</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>1844</v>
+        <v>2544</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>-615</v>
+        <v>-825</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H176" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I176" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J176" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J176" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K176" s="2" t="inlineStr">
@@ -8421,7 +8421,7 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
@@ -8431,30 +8431,30 @@
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-263</t>
+          <t>Nile Air NP-152</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>1229</v>
+        <v>1843</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>1844</v>
+        <v>2544</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>-615</v>
+        <v>-701</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I177" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J177" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J177" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K177" s="2" t="inlineStr">
@@ -8466,7 +8466,7 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -8476,30 +8476,30 @@
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-271</t>
+          <t>Air Arabia Egypt E5-416</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>1229</v>
+        <v>1874</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>1844</v>
+        <v>2544</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>-615</v>
+        <v>-670</v>
       </c>
       <c r="G178" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H178" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I178" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J178" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J178" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K178" s="2" t="inlineStr">
@@ -8511,7 +8511,7 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
@@ -8521,26 +8521,26 @@
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-269</t>
+          <t>Nile Air NP-252</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>1229</v>
+        <v>2144</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>1844</v>
+        <v>2544</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>-615</v>
+        <v>-400</v>
       </c>
       <c r="G179" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H179" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I179" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J179" s="4" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -8566,26 +8566,26 @@
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-311</t>
+          <t>flynas XY-287</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>1269</v>
+        <v>2219</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>1844</v>
+        <v>2544</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>-575</v>
+        <v>-325</v>
       </c>
       <c r="G180" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H180" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I180" s="2" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J180" s="4" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -8611,30 +8611,30 @@
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-417</t>
+          <t>flynas XY-265</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>1344</v>
+        <v>2219</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>1844</v>
+        <v>2544</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>-500</v>
+        <v>-325</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I181" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J181" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J181" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K181" s="2" t="inlineStr">
@@ -8646,7 +8646,7 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -8656,30 +8656,30 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-321</t>
+          <t>flynas XY-275</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>1518</v>
+        <v>2219</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>1844</v>
+        <v>2544</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>-326</v>
+        <v>-325</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H182" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I182" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J182" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J182" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K182" s="2" t="inlineStr">
@@ -8691,7 +8691,7 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
@@ -8701,30 +8701,30 @@
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-313</t>
+          <t>flynas XY-271</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>1518</v>
+        <v>2219</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>1844</v>
+        <v>2544</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>-326</v>
+        <v>-325</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H183" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I183" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J183" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J183" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K183" s="2" t="inlineStr">
@@ -8736,43 +8736,1303 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
+          <t>18-MAR-26</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-411</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>2299</v>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>2544</v>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>-245</v>
+      </c>
+      <c r="G184" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H184" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I184" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>18-MAR-26</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-8240</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>2591</v>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>2544</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="G185" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H185" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I185" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J185" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>22-MAR-26</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>SM-464</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-8246</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>1180</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>976</v>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H186" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I186" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J186" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>SM-464</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-263</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>539</v>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>976</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>-437</v>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H187" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I187" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J187" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>SM-464</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-265</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>589</v>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>976</v>
+      </c>
+      <c r="F188" s="2" t="n">
+        <v>-387</v>
+      </c>
+      <c r="G188" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H188" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I188" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J188" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>SM-464</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-267</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>589</v>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>976</v>
+      </c>
+      <c r="F189" s="2" t="n">
+        <v>-387</v>
+      </c>
+      <c r="G189" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H189" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I189" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J189" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>SM-464</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-273</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>589</v>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>976</v>
+      </c>
+      <c r="F190" s="2" t="n">
+        <v>-387</v>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H190" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I190" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J190" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>SM-464</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-275</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>589</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>976</v>
+      </c>
+      <c r="F191" s="2" t="n">
+        <v>-387</v>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H191" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I191" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J191" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K191" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>SM-464</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-269</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>589</v>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>976</v>
+      </c>
+      <c r="F192" s="2" t="n">
+        <v>-387</v>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H192" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I192" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J192" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K192" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>SM-464</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-611</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>899</v>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>976</v>
+      </c>
+      <c r="F193" s="2" t="n">
+        <v>-77</v>
+      </c>
+      <c r="G193" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H193" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I193" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J193" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>SM-464</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-8246</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>1180</v>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>976</v>
+      </c>
+      <c r="F194" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="G194" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H194" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I194" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J194" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>06-MAY-26</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-265</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>559</v>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>662</v>
+      </c>
+      <c r="F195" s="2" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G195" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H195" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I195" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J195" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>06-MAY-26</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-267</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>559</v>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>662</v>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H196" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I196" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J196" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>06-MAY-26</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-273</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>559</v>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>662</v>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H197" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I197" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J197" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
           <t>20-MAY-26</t>
         </is>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>SM-466</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-269</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>929</v>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F198" s="2" t="n">
+        <v>-915</v>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H198" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I198" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J198" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-273</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>-805</v>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H199" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I199" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J199" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-265</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>1119</v>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F200" s="2" t="n">
+        <v>-725</v>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H200" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I200" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J200" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-267</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>1119</v>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>-725</v>
+      </c>
+      <c r="G201" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H201" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I201" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J201" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-263</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>1119</v>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F202" s="2" t="n">
+        <v>-725</v>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H202" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I202" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J202" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-271</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>1119</v>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F203" s="2" t="n">
+        <v>-725</v>
+      </c>
+      <c r="G203" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H203" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I203" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J203" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-311</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>1321</v>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F204" s="2" t="n">
+        <v>-523</v>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H204" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I204" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J204" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-152</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>1333</v>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F205" s="2" t="n">
+        <v>-511</v>
+      </c>
+      <c r="G205" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H205" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I205" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-252</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>1333</v>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F206" s="2" t="n">
+        <v>-511</v>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H206" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I206" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-417</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>1396</v>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F207" s="2" t="n">
+        <v>-448</v>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H207" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I207" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J207" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>flyadeal F3-615</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>1627</v>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F208" s="2" t="n">
+        <v>-217</v>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H208" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I208" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-321</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>1651</v>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F209" s="2" t="n">
+        <v>-193</v>
+      </c>
+      <c r="G209" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H209" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I209" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J209" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K209" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>Saudia SV-313</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>1651</v>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>1844</v>
+      </c>
+      <c r="F210" s="2" t="n">
+        <v>-193</v>
+      </c>
+      <c r="G210" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H210" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I210" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J210" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>EgyptAir MS-8240</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
-        <v>1851</v>
-      </c>
-      <c r="E184" s="2" t="n">
+      <c r="D211" s="2" t="n">
+        <v>1870</v>
+      </c>
+      <c r="E211" s="2" t="n">
         <v>1844</v>
       </c>
-      <c r="F184" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G184" s="2" t="n">
+      <c r="F211" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G211" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="H184" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I184" s="2" t="n">
+      <c r="H211" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I211" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J184" s="4" t="inlineStr">
+      <c r="J211" s="4" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
-      <c r="K184" s="2" t="inlineStr">
+      <c r="K211" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>27-MAY-26</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>SM-466</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-8240</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>1055</v>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>864</v>
+      </c>
+      <c r="F212" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="G212" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H212" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I212" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J212" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_RUH_ATZ_threats.xlsx
+++ b/excel_routes/route_RUH_ATZ_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879CFF2F-B56F-4DE0-B2EE-64A3673A74FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3CA4B3-910A-4A0C-A86F-CDDB17C8A59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -60,46 +60,43 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>03-FEB-26</t>
+    <t>01-FEB-26</t>
   </si>
   <si>
     <t>SM-464</t>
   </si>
   <si>
-    <t>Air Arabia Egypt E5-411</t>
+    <t>Nile Air NP-152</t>
+  </si>
+  <si>
+    <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-163</t>
+  </si>
+  <si>
+    <t>Saudia SV-321</t>
   </si>
   <si>
     <t>LOW THREAT</t>
   </si>
   <si>
-    <t>SAR</t>
-  </si>
-  <si>
-    <t>Nile Air NP-152</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-8246</t>
-  </si>
-  <si>
-    <t>04-FEB-26</t>
-  </si>
-  <si>
-    <t>SM-466</t>
+    <t>03-FEB-26</t>
   </si>
   <si>
     <t>Air Arabia Egypt E5-416</t>
   </si>
   <si>
-    <t>Nile Air NP-252</t>
+    <t>Nesma Airlines NE-161</t>
   </si>
   <si>
-    <t>EgyptAir MS-650</t>
+    <t>Air Arabia Egypt E5-411</t>
   </si>
   <si>
-    <t>EgyptAir MS-648</t>
-  </si>
-  <si>
-    <t>08-FEB-26</t>
+    <t>flyadeal F3-605</t>
   </si>
   <si>
     <t>flynas XY-273</t>
@@ -109,12 +106,6 @@
   </si>
   <si>
     <t>flynas XY-269</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-163</t>
-  </si>
-  <si>
-    <t>MEDIUM THREAT - MONITOR</t>
   </si>
   <si>
     <t>flynas XY-287</t>
@@ -129,49 +120,52 @@
     <t>flynas XY-275</t>
   </si>
   <si>
-    <t>flyadeal F3-615</t>
+    <t>flynas XY-271</t>
   </si>
   <si>
     <t>EgyptAir MS-652</t>
   </si>
   <si>
-    <t>10-FEB-26</t>
+    <t>EgyptAir MS-648</t>
   </si>
   <si>
-    <t>Saudia SV-321</t>
+    <t>04-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-466</t>
+  </si>
+  <si>
+    <t>Nile Air NP-252</t>
+  </si>
+  <si>
+    <t>08-FEB-26</t>
   </si>
   <si>
     <t>flyadeal F3-611</t>
   </si>
   <si>
-    <t>flyadeal F3-605</t>
+    <t>flyadeal F3-607</t>
+  </si>
+  <si>
+    <t>flyadeal F3-615</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-650</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-8246</t>
+  </si>
+  <si>
+    <t>10-FEB-26</t>
   </si>
   <si>
     <t>11-FEB-26</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-161</t>
   </si>
   <si>
     <t>EgyptAir MS-8240</t>
   </si>
   <si>
     <t>15-FEB-26</t>
-  </si>
-  <si>
-    <t>flyadeal F3-607</t>
-  </si>
-  <si>
-    <t>flynas XY-271</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-361</t>
-  </si>
-  <si>
-    <t>Saudia SV-311</t>
-  </si>
-  <si>
-    <t>Saudia SV-417</t>
   </si>
   <si>
     <t>17-FEB-26</t>
@@ -181,9 +175,6 @@
   </si>
   <si>
     <t>22-FEB-26</t>
-  </si>
-  <si>
-    <t>Saudia SV-313</t>
   </si>
   <si>
     <t>24-FEB-26</t>
@@ -198,10 +189,58 @@
     <t>HIGH THREAT ALERT - NEED ACTION</t>
   </si>
   <si>
+    <t>Saudia SV-313</t>
+  </si>
+  <si>
+    <t>Saudia SV-311</t>
+  </si>
+  <si>
+    <t>Saudia SV-417</t>
+  </si>
+  <si>
     <t>03-MAR-26</t>
   </si>
   <si>
-    <t>04-MAR-26</t>
+    <t>08-MAR-26</t>
+  </si>
+  <si>
+    <t>10-MAR-26</t>
+  </si>
+  <si>
+    <t>11-MAR-26</t>
+  </si>
+  <si>
+    <t>17-MAR-26</t>
+  </si>
+  <si>
+    <t>18-MAR-26</t>
+  </si>
+  <si>
+    <t>24-MAR-26</t>
+  </si>
+  <si>
+    <t>01-APR-26</t>
+  </si>
+  <si>
+    <t>08-APR-26</t>
+  </si>
+  <si>
+    <t>15-APR-26</t>
+  </si>
+  <si>
+    <t>22-APR-26</t>
+  </si>
+  <si>
+    <t>13-MAY-26</t>
+  </si>
+  <si>
+    <t>20-MAY-26</t>
+  </si>
+  <si>
+    <t>flyadeal F3-613</t>
+  </si>
+  <si>
+    <t>27-MAY-26</t>
   </si>
 </sst>
 </file>
@@ -243,14 +282,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD4EDDA"/>
-        <bgColor rgb="FFD4EDDA"/>
+        <fgColor rgb="FFFFF3CD"/>
+        <bgColor rgb="FFFFF3CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF3CD"/>
-        <bgColor rgb="FFFFF3CD"/>
+        <fgColor rgb="FFD4EDDA"/>
+        <bgColor rgb="FFD4EDDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -607,7 +646,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K150"/>
+  <dimension ref="A1:K229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,22 +710,22 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>462</v>
+        <v>350</v>
       </c>
       <c r="E2" s="2">
-        <v>728</v>
+        <v>664</v>
       </c>
       <c r="F2" s="2">
-        <v>-266</v>
+        <v>-314</v>
       </c>
       <c r="G2" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <v>30</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
@@ -706,13 +745,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="E3" s="2">
-        <v>728</v>
+        <v>664</v>
       </c>
       <c r="F3" s="2">
-        <v>-128</v>
+        <v>-314</v>
       </c>
       <c r="G3" s="2">
         <v>40</v>
@@ -741,13 +780,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>929</v>
+        <v>594</v>
       </c>
       <c r="E4" s="2">
-        <v>728</v>
+        <v>664</v>
       </c>
       <c r="F4" s="2">
-        <v>201</v>
+        <v>-70</v>
       </c>
       <c r="G4" s="2">
         <v>46</v>
@@ -758,8 +797,8 @@
       <c r="I4" s="2">
         <v>-16</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
@@ -767,22 +806,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>428</v>
+        <v>323</v>
       </c>
       <c r="E5" s="2">
-        <v>728</v>
+        <v>664</v>
       </c>
       <c r="F5" s="2">
-        <v>-300</v>
+        <v>-341</v>
       </c>
       <c r="G5" s="2">
         <v>30</v>
@@ -793,8 +832,8 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>15</v>
@@ -802,22 +841,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>599</v>
+        <v>350</v>
       </c>
       <c r="E6" s="2">
-        <v>728</v>
+        <v>664</v>
       </c>
       <c r="F6" s="2">
-        <v>-129</v>
+        <v>-314</v>
       </c>
       <c r="G6" s="2">
         <v>40</v>
@@ -837,31 +876,31 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
-        <v>659</v>
+        <v>350</v>
       </c>
       <c r="E7" s="2">
-        <v>728</v>
+        <v>664</v>
       </c>
       <c r="F7" s="2">
-        <v>-69</v>
+        <v>-314</v>
       </c>
       <c r="G7" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -872,34 +911,34 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>723</v>
+        <v>398</v>
       </c>
       <c r="E8" s="2">
-        <v>728</v>
+        <v>664</v>
       </c>
       <c r="F8" s="2">
-        <v>-5</v>
+        <v>-266</v>
       </c>
       <c r="G8" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2">
         <v>30</v>
       </c>
       <c r="I8" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -907,34 +946,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>369</v>
+        <v>457</v>
       </c>
       <c r="E9" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F9" s="2">
-        <v>-425</v>
+        <v>-207</v>
       </c>
       <c r="G9" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2">
         <v>30</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
@@ -942,34 +981,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="2">
-        <v>369</v>
+        <v>479</v>
       </c>
       <c r="E10" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F10" s="2">
-        <v>-425</v>
+        <v>-185</v>
       </c>
       <c r="G10" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
@@ -977,34 +1016,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
-        <v>369</v>
+        <v>479</v>
       </c>
       <c r="E11" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F11" s="2">
-        <v>-425</v>
+        <v>-185</v>
       </c>
       <c r="G11" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2">
         <v>30</v>
       </c>
       <c r="I11" s="2">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -1012,22 +1051,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="E12" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F12" s="2">
-        <v>-393</v>
+        <v>-185</v>
       </c>
       <c r="G12" s="2">
         <v>40</v>
@@ -1039,7 +1078,7 @@
         <v>-10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
@@ -1047,34 +1086,34 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>404</v>
+        <v>519</v>
       </c>
       <c r="E13" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F13" s="2">
-        <v>-390</v>
+        <v>-145</v>
       </c>
       <c r="G13" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2">
         <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>15</v>
@@ -1082,34 +1121,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>409</v>
+        <v>519</v>
       </c>
       <c r="E14" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F14" s="2">
-        <v>-385</v>
+        <v>-145</v>
       </c>
       <c r="G14" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2">
         <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>15</v>
@@ -1117,34 +1156,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
-        <v>409</v>
+        <v>519</v>
       </c>
       <c r="E15" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F15" s="2">
-        <v>-385</v>
+        <v>-145</v>
       </c>
       <c r="G15" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2">
         <v>30</v>
       </c>
       <c r="I15" s="2">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>15</v>
@@ -1152,34 +1191,34 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
-        <v>409</v>
+        <v>559</v>
       </c>
       <c r="E16" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F16" s="2">
-        <v>-385</v>
+        <v>-105</v>
       </c>
       <c r="G16" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2">
         <v>30</v>
       </c>
       <c r="I16" s="2">
-        <v>10</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>15</v>
@@ -1187,34 +1226,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2">
-        <v>409</v>
+        <v>594</v>
       </c>
       <c r="E17" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F17" s="2">
-        <v>-385</v>
+        <v>-70</v>
       </c>
       <c r="G17" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2">
         <v>30</v>
       </c>
       <c r="I17" s="2">
-        <v>10</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>15</v>
@@ -1222,34 +1261,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
-        <v>422</v>
+        <v>599</v>
       </c>
       <c r="E18" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F18" s="2">
-        <v>-372</v>
+        <v>-65</v>
       </c>
       <c r="G18" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2">
         <v>30</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>15</v>
@@ -1257,34 +1296,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
-        <v>496</v>
+        <v>616</v>
       </c>
       <c r="E19" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F19" s="2">
-        <v>-298</v>
+        <v>-48</v>
       </c>
       <c r="G19" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2">
         <v>30</v>
       </c>
       <c r="I19" s="2">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>15</v>
@@ -1292,34 +1331,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
-        <v>574</v>
+        <v>624</v>
       </c>
       <c r="E20" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F20" s="2">
-        <v>-220</v>
+        <v>-40</v>
       </c>
       <c r="G20" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2">
         <v>30</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>15</v>
@@ -1327,34 +1366,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>616</v>
+        <v>361</v>
       </c>
       <c r="E21" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F21" s="2">
-        <v>-178</v>
+        <v>-303</v>
       </c>
       <c r="G21" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2">
         <v>30</v>
       </c>
       <c r="I21" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>15</v>
@@ -1362,34 +1401,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2">
-        <v>929</v>
+        <v>416</v>
       </c>
       <c r="E22" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F22" s="2">
-        <v>135</v>
+        <v>-248</v>
       </c>
       <c r="G22" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H22" s="2">
         <v>30</v>
       </c>
       <c r="I22" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>15</v>
@@ -1397,34 +1436,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D23" s="2">
-        <v>193</v>
+        <v>416</v>
       </c>
       <c r="E23" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F23" s="2">
-        <v>-601</v>
+        <v>-248</v>
       </c>
       <c r="G23" s="2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H23" s="2">
         <v>30</v>
       </c>
       <c r="I23" s="2">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>15</v>
@@ -1432,34 +1471,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
-        <v>409</v>
+        <v>616</v>
       </c>
       <c r="E24" s="2">
-        <v>794</v>
+        <v>664</v>
       </c>
       <c r="F24" s="2">
-        <v>-385</v>
+        <v>-48</v>
       </c>
       <c r="G24" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H24" s="2">
         <v>30</v>
       </c>
       <c r="I24" s="2">
-        <v>10</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>15</v>
@@ -1467,34 +1506,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E25" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F25" s="2">
-        <v>-385</v>
+        <v>-316</v>
       </c>
       <c r="G25" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H25" s="2">
         <v>30</v>
       </c>
       <c r="I25" s="2">
-        <v>10</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>15</v>
@@ -1502,22 +1541,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="E26" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F26" s="2">
-        <v>-370</v>
+        <v>-316</v>
       </c>
       <c r="G26" s="2">
         <v>30</v>
@@ -1528,8 +1567,8 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>14</v>
+      <c r="J26" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
@@ -1537,7 +1576,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
@@ -1546,25 +1585,25 @@
         <v>13</v>
       </c>
       <c r="D27" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E27" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F27" s="2">
-        <v>-302</v>
+        <v>-224</v>
       </c>
       <c r="G27" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H27" s="2">
         <v>30</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>15</v>
@@ -1572,7 +1611,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
@@ -1581,13 +1620,13 @@
         <v>16</v>
       </c>
       <c r="D28" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E28" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F28" s="2">
-        <v>-298</v>
+        <v>-220</v>
       </c>
       <c r="G28" s="2">
         <v>40</v>
@@ -1599,7 +1638,7 @@
         <v>-10</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>15</v>
@@ -1607,7 +1646,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
@@ -1616,13 +1655,13 @@
         <v>38</v>
       </c>
       <c r="D29" s="2">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="E29" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F29" s="2">
-        <v>-250</v>
+        <v>-203</v>
       </c>
       <c r="G29" s="2">
         <v>30</v>
@@ -1633,8 +1672,8 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>14</v>
+      <c r="J29" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>15</v>
@@ -1642,22 +1681,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="E30" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F30" s="2">
-        <v>-250</v>
+        <v>-203</v>
       </c>
       <c r="G30" s="2">
         <v>30</v>
@@ -1668,8 +1707,8 @@
       <c r="I30" s="2">
         <v>0</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>14</v>
+      <c r="J30" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>15</v>
@@ -1677,34 +1716,34 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" s="2">
-        <v>560</v>
+        <v>517</v>
       </c>
       <c r="E31" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F31" s="2">
-        <v>-234</v>
+        <v>-203</v>
       </c>
       <c r="G31" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H31" s="2">
         <v>30</v>
       </c>
       <c r="I31" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>15</v>
@@ -1712,22 +1751,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="E32" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F32" s="2">
-        <v>-220</v>
+        <v>-203</v>
       </c>
       <c r="G32" s="2">
         <v>30</v>
@@ -1738,8 +1777,8 @@
       <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>14</v>
+      <c r="J32" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>15</v>
@@ -1747,22 +1786,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2">
-        <v>616</v>
+        <v>519</v>
       </c>
       <c r="E33" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F33" s="2">
-        <v>-178</v>
+        <v>-201</v>
       </c>
       <c r="G33" s="2">
         <v>46</v>
@@ -1773,8 +1812,8 @@
       <c r="I33" s="2">
         <v>-16</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>29</v>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>15</v>
@@ -1782,34 +1821,34 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="E34" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F34" s="2">
-        <v>-170</v>
+        <v>-121</v>
       </c>
       <c r="G34" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H34" s="2">
         <v>30</v>
       </c>
       <c r="I34" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>15</v>
@@ -1817,22 +1856,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
-        <v>639</v>
+        <v>599</v>
       </c>
       <c r="E35" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F35" s="2">
-        <v>-155</v>
+        <v>-121</v>
       </c>
       <c r="G35" s="2">
         <v>40</v>
@@ -1843,8 +1882,8 @@
       <c r="I35" s="2">
         <v>-10</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>14</v>
+      <c r="J35" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>15</v>
@@ -1852,22 +1891,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
-        <v>679</v>
+        <v>599</v>
       </c>
       <c r="E36" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F36" s="2">
-        <v>-115</v>
+        <v>-121</v>
       </c>
       <c r="G36" s="2">
         <v>40</v>
@@ -1878,8 +1917,8 @@
       <c r="I36" s="2">
         <v>-10</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>14</v>
+      <c r="J36" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>15</v>
@@ -1887,22 +1926,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2">
-        <v>679</v>
+        <v>599</v>
       </c>
       <c r="E37" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F37" s="2">
-        <v>-115</v>
+        <v>-121</v>
       </c>
       <c r="G37" s="2">
         <v>40</v>
@@ -1913,8 +1952,8 @@
       <c r="I37" s="2">
         <v>-10</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>14</v>
+      <c r="J37" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>15</v>
@@ -1922,34 +1961,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
-        <v>929</v>
+        <v>599</v>
       </c>
       <c r="E38" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F38" s="2">
-        <v>135</v>
+        <v>-121</v>
       </c>
       <c r="G38" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H38" s="2">
         <v>30</v>
       </c>
       <c r="I38" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>15</v>
@@ -1957,22 +1996,22 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2">
-        <v>401</v>
+        <v>599</v>
       </c>
       <c r="E39" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F39" s="2">
-        <v>-393</v>
+        <v>-121</v>
       </c>
       <c r="G39" s="2">
         <v>40</v>
@@ -1984,7 +2023,7 @@
         <v>-10</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>15</v>
@@ -1992,34 +2031,34 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="2">
+        <v>599</v>
+      </c>
+      <c r="E40" s="2">
+        <v>720</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-121</v>
+      </c>
+      <c r="G40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="2">
-        <v>473</v>
-      </c>
-      <c r="E40" s="2">
-        <v>794</v>
-      </c>
-      <c r="F40" s="2">
-        <v>-321</v>
-      </c>
-      <c r="G40" s="2">
-        <v>30</v>
-      </c>
       <c r="H40" s="2">
         <v>30</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>15</v>
@@ -2027,22 +2066,22 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D41" s="2">
-        <v>496</v>
+        <v>599</v>
       </c>
       <c r="E41" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F41" s="2">
-        <v>-298</v>
+        <v>-121</v>
       </c>
       <c r="G41" s="2">
         <v>40</v>
@@ -2054,7 +2093,7 @@
         <v>-10</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>15</v>
@@ -2062,34 +2101,34 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="E42" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F42" s="2">
-        <v>-155</v>
+        <v>-104</v>
       </c>
       <c r="G42" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H42" s="2">
         <v>30</v>
       </c>
       <c r="I42" s="2">
-        <v>-10</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>15</v>
@@ -2097,22 +2136,22 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
-        <v>929</v>
+        <v>616</v>
       </c>
       <c r="E43" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="F43" s="2">
-        <v>135</v>
+        <v>-104</v>
       </c>
       <c r="G43" s="2">
         <v>46</v>
@@ -2123,8 +2162,8 @@
       <c r="I43" s="2">
         <v>-16</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>14</v>
+      <c r="J43" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>15</v>
@@ -2132,34 +2171,34 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2">
-        <v>399</v>
+        <v>929</v>
       </c>
       <c r="E44" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F44" s="2">
-        <v>-465</v>
+        <v>209</v>
       </c>
       <c r="G44" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H44" s="2">
         <v>30</v>
       </c>
       <c r="I44" s="2">
-        <v>15</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>15</v>
@@ -2173,28 +2212,28 @@
         <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="E45" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F45" s="2">
-        <v>-465</v>
+        <v>-296</v>
       </c>
       <c r="G45" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H45" s="2">
         <v>30</v>
       </c>
       <c r="I45" s="2">
-        <v>15</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>15</v>
@@ -2208,28 +2247,28 @@
         <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D46" s="2">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="E46" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F46" s="2">
-        <v>-455</v>
+        <v>-247</v>
       </c>
       <c r="G46" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H46" s="2">
         <v>30</v>
       </c>
       <c r="I46" s="2">
-        <v>10</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>15</v>
@@ -2243,28 +2282,28 @@
         <v>12</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="E47" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F47" s="2">
-        <v>-435</v>
+        <v>-224</v>
       </c>
       <c r="G47" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H47" s="2">
         <v>30</v>
       </c>
       <c r="I47" s="2">
-        <v>15</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>15</v>
@@ -2278,25 +2317,25 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D48" s="2">
-        <v>449</v>
+        <v>560</v>
       </c>
       <c r="E48" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F48" s="2">
-        <v>-415</v>
+        <v>-160</v>
       </c>
       <c r="G48" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H48" s="2">
         <v>30</v>
       </c>
       <c r="I48" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>14</v>
@@ -2313,28 +2352,28 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
-        <v>449</v>
+        <v>616</v>
       </c>
       <c r="E49" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F49" s="2">
-        <v>-415</v>
+        <v>-104</v>
       </c>
       <c r="G49" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H49" s="2">
         <v>30</v>
       </c>
       <c r="I49" s="2">
-        <v>10</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>15</v>
@@ -2348,28 +2387,28 @@
         <v>12</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
-        <v>449</v>
+        <v>624</v>
       </c>
       <c r="E50" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F50" s="2">
-        <v>-415</v>
+        <v>-96</v>
       </c>
       <c r="G50" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H50" s="2">
         <v>30</v>
       </c>
       <c r="I50" s="2">
-        <v>10</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>15</v>
@@ -2383,28 +2422,28 @@
         <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
-        <v>449</v>
+        <v>639</v>
       </c>
       <c r="E51" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F51" s="2">
-        <v>-415</v>
+        <v>-81</v>
       </c>
       <c r="G51" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H51" s="2">
         <v>30</v>
       </c>
       <c r="I51" s="2">
-        <v>10</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>15</v>
@@ -2418,28 +2457,28 @@
         <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2">
-        <v>449</v>
+        <v>639</v>
       </c>
       <c r="E52" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F52" s="2">
-        <v>-415</v>
+        <v>-81</v>
       </c>
       <c r="G52" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H52" s="2">
         <v>30</v>
       </c>
       <c r="I52" s="2">
-        <v>10</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>15</v>
@@ -2453,28 +2492,28 @@
         <v>12</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2">
-        <v>449</v>
+        <v>929</v>
       </c>
       <c r="E53" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F53" s="2">
-        <v>-415</v>
+        <v>209</v>
       </c>
       <c r="G53" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H53" s="2">
         <v>30</v>
       </c>
       <c r="I53" s="2">
-        <v>10</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>15</v>
@@ -2482,34 +2521,34 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D54" s="2">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="E54" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F54" s="2">
-        <v>-415</v>
+        <v>-247</v>
       </c>
       <c r="G54" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H54" s="2">
         <v>30</v>
       </c>
       <c r="I54" s="2">
-        <v>10</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>15</v>
@@ -2517,34 +2556,34 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E55" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F55" s="2">
-        <v>-369</v>
+        <v>-224</v>
       </c>
       <c r="G55" s="2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H55" s="2">
         <v>30</v>
       </c>
       <c r="I55" s="2">
-        <v>7</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>15</v>
@@ -2552,34 +2591,34 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E56" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F56" s="2">
-        <v>-367</v>
+        <v>-220</v>
       </c>
       <c r="G56" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H56" s="2">
         <v>30</v>
       </c>
       <c r="I56" s="2">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>15</v>
@@ -2587,22 +2626,22 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="E57" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F57" s="2">
-        <v>-364</v>
+        <v>-121</v>
       </c>
       <c r="G57" s="2">
         <v>40</v>
@@ -2614,7 +2653,7 @@
         <v>-10</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>15</v>
@@ -2622,34 +2661,34 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="E58" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F58" s="2">
-        <v>-330</v>
+        <v>-121</v>
       </c>
       <c r="G58" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H58" s="2">
         <v>30</v>
       </c>
       <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>15</v>
@@ -2657,34 +2696,34 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
-        <v>551</v>
+        <v>639</v>
       </c>
       <c r="E59" s="2">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="F59" s="2">
-        <v>-313</v>
+        <v>-81</v>
       </c>
       <c r="G59" s="2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H59" s="2">
         <v>30</v>
       </c>
       <c r="I59" s="2">
-        <v>7</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>15</v>
@@ -2692,34 +2731,34 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="2">
+        <v>929</v>
+      </c>
+      <c r="E60" s="2">
+        <v>720</v>
+      </c>
+      <c r="F60" s="2">
+        <v>209</v>
+      </c>
+      <c r="G60" s="2">
         <v>46</v>
       </c>
-      <c r="D60" s="2">
-        <v>790</v>
-      </c>
-      <c r="E60" s="2">
-        <v>864</v>
-      </c>
-      <c r="F60" s="2">
-        <v>-74</v>
-      </c>
-      <c r="G60" s="2">
-        <v>30</v>
-      </c>
       <c r="H60" s="2">
         <v>30</v>
       </c>
       <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>15</v>
@@ -2727,34 +2766,34 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D61" s="2">
-        <v>884</v>
+        <v>497</v>
       </c>
       <c r="E61" s="2">
-        <v>864</v>
+        <v>780</v>
       </c>
       <c r="F61" s="2">
-        <v>20</v>
+        <v>-283</v>
       </c>
       <c r="G61" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H61" s="2">
         <v>30</v>
       </c>
       <c r="I61" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>15</v>
@@ -2762,34 +2801,34 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2">
-        <v>884</v>
+        <v>497</v>
       </c>
       <c r="E62" s="2">
-        <v>864</v>
+        <v>780</v>
       </c>
       <c r="F62" s="2">
-        <v>20</v>
+        <v>-283</v>
       </c>
       <c r="G62" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H62" s="2">
         <v>30</v>
       </c>
       <c r="I62" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>15</v>
@@ -2797,31 +2836,31 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" s="2">
-        <v>1055</v>
+        <v>500</v>
       </c>
       <c r="E63" s="2">
-        <v>864</v>
+        <v>780</v>
       </c>
       <c r="F63" s="2">
-        <v>191</v>
+        <v>-280</v>
       </c>
       <c r="G63" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H63" s="2">
         <v>30</v>
       </c>
       <c r="I63" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>14</v>
@@ -2832,22 +2871,22 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D64" s="2">
-        <v>401</v>
+        <v>517</v>
       </c>
       <c r="E64" s="2">
-        <v>662</v>
+        <v>780</v>
       </c>
       <c r="F64" s="2">
-        <v>-261</v>
+        <v>-263</v>
       </c>
       <c r="G64" s="2">
         <v>30</v>
@@ -2858,8 +2897,8 @@
       <c r="I64" s="2">
         <v>0</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>14</v>
+      <c r="J64" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>15</v>
@@ -2867,22 +2906,22 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D65" s="2">
-        <v>424</v>
+        <v>547</v>
       </c>
       <c r="E65" s="2">
-        <v>662</v>
+        <v>780</v>
       </c>
       <c r="F65" s="2">
-        <v>-238</v>
+        <v>-233</v>
       </c>
       <c r="G65" s="2">
         <v>30</v>
@@ -2893,8 +2932,8 @@
       <c r="I65" s="2">
         <v>0</v>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>14</v>
+      <c r="J65" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>15</v>
@@ -2902,22 +2941,22 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D66" s="2">
-        <v>424</v>
+        <v>577</v>
       </c>
       <c r="E66" s="2">
-        <v>662</v>
+        <v>780</v>
       </c>
       <c r="F66" s="2">
-        <v>-238</v>
+        <v>-203</v>
       </c>
       <c r="G66" s="2">
         <v>30</v>
@@ -2928,8 +2967,8 @@
       <c r="I66" s="2">
         <v>0</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>14</v>
+      <c r="J66" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>15</v>
@@ -2937,34 +2976,34 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
-        <v>660</v>
+        <v>599</v>
       </c>
       <c r="E67" s="2">
-        <v>662</v>
+        <v>780</v>
       </c>
       <c r="F67" s="2">
-        <v>-2</v>
+        <v>-181</v>
       </c>
       <c r="G67" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H67" s="2">
         <v>30</v>
       </c>
       <c r="I67" s="2">
-        <v>0</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>15</v>
@@ -2972,22 +3011,22 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
-        <v>416</v>
+        <v>599</v>
       </c>
       <c r="E68" s="2">
-        <v>494</v>
+        <v>780</v>
       </c>
       <c r="F68" s="2">
-        <v>-78</v>
+        <v>-181</v>
       </c>
       <c r="G68" s="2">
         <v>40</v>
@@ -2998,8 +3037,8 @@
       <c r="I68" s="2">
         <v>-10</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>14</v>
+      <c r="J68" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>15</v>
@@ -3007,34 +3046,34 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
-        <v>287</v>
+        <v>599</v>
       </c>
       <c r="E69" s="2">
-        <v>662</v>
+        <v>780</v>
       </c>
       <c r="F69" s="2">
-        <v>-375</v>
+        <v>-181</v>
       </c>
       <c r="G69" s="2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H69" s="2">
         <v>30</v>
       </c>
       <c r="I69" s="2">
-        <v>7</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>15</v>
@@ -3042,34 +3081,34 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2">
-        <v>287</v>
+        <v>599</v>
       </c>
       <c r="E70" s="2">
-        <v>662</v>
+        <v>780</v>
       </c>
       <c r="F70" s="2">
-        <v>-375</v>
+        <v>-181</v>
       </c>
       <c r="G70" s="2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H70" s="2">
         <v>30</v>
       </c>
       <c r="I70" s="2">
-        <v>7</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>15</v>
@@ -3077,34 +3116,34 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
-        <v>287</v>
+        <v>599</v>
       </c>
       <c r="E71" s="2">
-        <v>662</v>
+        <v>780</v>
       </c>
       <c r="F71" s="2">
-        <v>-375</v>
+        <v>-181</v>
       </c>
       <c r="G71" s="2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H71" s="2">
         <v>30</v>
       </c>
       <c r="I71" s="2">
-        <v>7</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>15</v>
@@ -3112,34 +3151,34 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2">
-        <v>287</v>
+        <v>599</v>
       </c>
       <c r="E72" s="2">
-        <v>662</v>
+        <v>780</v>
       </c>
       <c r="F72" s="2">
-        <v>-375</v>
+        <v>-181</v>
       </c>
       <c r="G72" s="2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H72" s="2">
         <v>30</v>
       </c>
       <c r="I72" s="2">
-        <v>7</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>15</v>
@@ -3147,7 +3186,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
@@ -3156,25 +3195,25 @@
         <v>31</v>
       </c>
       <c r="D73" s="2">
-        <v>289</v>
+        <v>599</v>
       </c>
       <c r="E73" s="2">
-        <v>662</v>
+        <v>780</v>
       </c>
       <c r="F73" s="2">
-        <v>-373</v>
+        <v>-181</v>
       </c>
       <c r="G73" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H73" s="2">
         <v>30</v>
       </c>
       <c r="I73" s="2">
-        <v>10</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>15</v>
@@ -3182,34 +3221,34 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2">
-        <v>289</v>
+        <v>599</v>
       </c>
       <c r="E74" s="2">
-        <v>662</v>
+        <v>780</v>
       </c>
       <c r="F74" s="2">
-        <v>-373</v>
+        <v>-181</v>
       </c>
       <c r="G74" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H74" s="2">
         <v>30</v>
       </c>
       <c r="I74" s="2">
-        <v>10</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>15</v>
@@ -3217,34 +3256,34 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D75" s="2">
-        <v>289</v>
+        <v>401</v>
       </c>
       <c r="E75" s="2">
         <v>662</v>
       </c>
       <c r="F75" s="2">
-        <v>-373</v>
+        <v>-261</v>
       </c>
       <c r="G75" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H75" s="2">
         <v>30</v>
       </c>
       <c r="I75" s="2">
-        <v>10</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>15</v>
@@ -3252,34 +3291,34 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
-        <v>289</v>
+        <v>576</v>
       </c>
       <c r="E76" s="2">
         <v>662</v>
       </c>
       <c r="F76" s="2">
-        <v>-373</v>
+        <v>-86</v>
       </c>
       <c r="G76" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H76" s="2">
         <v>30</v>
       </c>
       <c r="I76" s="2">
-        <v>10</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>15</v>
@@ -3287,34 +3326,34 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2">
-        <v>289</v>
+        <v>398</v>
       </c>
       <c r="E77" s="2">
         <v>662</v>
       </c>
       <c r="F77" s="2">
-        <v>-373</v>
+        <v>-264</v>
       </c>
       <c r="G77" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H77" s="2">
         <v>30</v>
       </c>
       <c r="I77" s="2">
-        <v>10</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>15</v>
@@ -3322,34 +3361,34 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D78" s="2">
-        <v>289</v>
+        <v>398</v>
       </c>
       <c r="E78" s="2">
         <v>662</v>
       </c>
       <c r="F78" s="2">
-        <v>-373</v>
+        <v>-264</v>
       </c>
       <c r="G78" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H78" s="2">
         <v>30</v>
       </c>
       <c r="I78" s="2">
-        <v>10</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>15</v>
@@ -3357,13 +3396,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D79" s="2">
         <v>401</v>
@@ -3383,8 +3422,8 @@
       <c r="I79" s="2">
         <v>0</v>
       </c>
-      <c r="J79" s="3" t="s">
-        <v>14</v>
+      <c r="J79" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>15</v>
@@ -3392,34 +3431,34 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D80" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="E80" s="2">
         <v>662</v>
       </c>
       <c r="F80" s="2">
-        <v>-258</v>
+        <v>-246</v>
       </c>
       <c r="G80" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H80" s="2">
         <v>30</v>
       </c>
       <c r="I80" s="2">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>15</v>
@@ -3427,34 +3466,34 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
-        <v>404</v>
+        <v>568</v>
       </c>
       <c r="E81" s="2">
         <v>662</v>
       </c>
       <c r="F81" s="2">
-        <v>-258</v>
+        <v>-94</v>
       </c>
       <c r="G81" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H81" s="2">
         <v>30</v>
       </c>
       <c r="I81" s="2">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>15</v>
@@ -3462,34 +3501,34 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D82" s="2">
-        <v>568</v>
+        <v>229</v>
       </c>
       <c r="E82" s="2">
         <v>662</v>
       </c>
       <c r="F82" s="2">
-        <v>-94</v>
+        <v>-433</v>
       </c>
       <c r="G82" s="2">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H82" s="2">
         <v>30</v>
       </c>
       <c r="I82" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>15</v>
@@ -3497,34 +3536,34 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D83" s="2">
-        <v>576</v>
+        <v>229</v>
       </c>
       <c r="E83" s="2">
         <v>662</v>
       </c>
       <c r="F83" s="2">
-        <v>-86</v>
+        <v>-433</v>
       </c>
       <c r="G83" s="2">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H83" s="2">
         <v>30</v>
       </c>
       <c r="I83" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>15</v>
@@ -3532,34 +3571,34 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D84" s="2">
-        <v>398</v>
+        <v>259</v>
       </c>
       <c r="E84" s="2">
         <v>662</v>
       </c>
       <c r="F84" s="2">
-        <v>-264</v>
+        <v>-403</v>
       </c>
       <c r="G84" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H84" s="2">
         <v>30</v>
       </c>
       <c r="I84" s="2">
-        <v>0</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>15</v>
@@ -3567,34 +3606,34 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
-        <v>398</v>
+        <v>279</v>
       </c>
       <c r="E85" s="2">
         <v>662</v>
       </c>
       <c r="F85" s="2">
-        <v>-264</v>
+        <v>-383</v>
       </c>
       <c r="G85" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H85" s="2">
         <v>30</v>
       </c>
       <c r="I85" s="2">
-        <v>0</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>15</v>
@@ -3602,34 +3641,34 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
-        <v>401</v>
+        <v>279</v>
       </c>
       <c r="E86" s="2">
         <v>662</v>
       </c>
       <c r="F86" s="2">
-        <v>-261</v>
+        <v>-383</v>
       </c>
       <c r="G86" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H86" s="2">
         <v>30</v>
       </c>
       <c r="I86" s="2">
-        <v>0</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>15</v>
@@ -3637,34 +3676,34 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="E87" s="2">
         <v>662</v>
       </c>
       <c r="F87" s="2">
-        <v>-246</v>
+        <v>-373</v>
       </c>
       <c r="G87" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H87" s="2">
         <v>30</v>
       </c>
       <c r="I87" s="2">
-        <v>0</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>15</v>
@@ -3672,34 +3711,34 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
-        <v>616</v>
+        <v>289</v>
       </c>
       <c r="E88" s="2">
         <v>662</v>
       </c>
       <c r="F88" s="2">
-        <v>-46</v>
+        <v>-373</v>
       </c>
       <c r="G88" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H88" s="2">
         <v>30</v>
       </c>
       <c r="I88" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>15</v>
@@ -3707,22 +3746,22 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="E89" s="2">
-        <v>794</v>
+        <v>662</v>
       </c>
       <c r="F89" s="2">
-        <v>-425</v>
+        <v>-373</v>
       </c>
       <c r="G89" s="2">
         <v>20</v>
@@ -3733,8 +3772,8 @@
       <c r="I89" s="2">
         <v>10</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>14</v>
+      <c r="J89" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>15</v>
@@ -3742,34 +3781,34 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D90" s="2">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="E90" s="2">
-        <v>794</v>
+        <v>662</v>
       </c>
       <c r="F90" s="2">
-        <v>-425</v>
+        <v>-261</v>
       </c>
       <c r="G90" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H90" s="2">
         <v>30</v>
       </c>
       <c r="I90" s="2">
-        <v>10</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>15</v>
@@ -3777,34 +3816,34 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="E91" s="2">
-        <v>794</v>
+        <v>662</v>
       </c>
       <c r="F91" s="2">
-        <v>-425</v>
+        <v>-258</v>
       </c>
       <c r="G91" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H91" s="2">
         <v>30</v>
       </c>
       <c r="I91" s="2">
-        <v>10</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>15</v>
@@ -3812,34 +3851,34 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D92" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="E92" s="2">
-        <v>794</v>
+        <v>662</v>
       </c>
       <c r="F92" s="2">
-        <v>-425</v>
+        <v>-258</v>
       </c>
       <c r="G92" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H92" s="2">
         <v>30</v>
       </c>
       <c r="I92" s="2">
-        <v>10</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>15</v>
@@ -3847,22 +3886,22 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="E93" s="2">
-        <v>794</v>
+        <v>662</v>
       </c>
       <c r="F93" s="2">
-        <v>-425</v>
+        <v>-373</v>
       </c>
       <c r="G93" s="2">
         <v>20</v>
@@ -3873,8 +3912,8 @@
       <c r="I93" s="2">
         <v>10</v>
       </c>
-      <c r="J93" s="3" t="s">
-        <v>14</v>
+      <c r="J93" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>15</v>
@@ -3882,22 +3921,22 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="E94" s="2">
-        <v>794</v>
+        <v>662</v>
       </c>
       <c r="F94" s="2">
-        <v>-425</v>
+        <v>-373</v>
       </c>
       <c r="G94" s="2">
         <v>20</v>
@@ -3908,8 +3947,8 @@
       <c r="I94" s="2">
         <v>10</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>14</v>
+      <c r="J94" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>15</v>
@@ -3917,34 +3956,34 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
-        <v>401</v>
+        <v>289</v>
       </c>
       <c r="E95" s="2">
-        <v>794</v>
+        <v>662</v>
       </c>
       <c r="F95" s="2">
-        <v>-393</v>
+        <v>-373</v>
       </c>
       <c r="G95" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H95" s="2">
         <v>30</v>
       </c>
       <c r="I95" s="2">
-        <v>0</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>15</v>
@@ -3952,22 +3991,22 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2">
         <v>416</v>
       </c>
       <c r="E96" s="2">
-        <v>794</v>
+        <v>662</v>
       </c>
       <c r="F96" s="2">
-        <v>-378</v>
+        <v>-246</v>
       </c>
       <c r="G96" s="2">
         <v>30</v>
@@ -3978,8 +4017,8 @@
       <c r="I96" s="2">
         <v>0</v>
       </c>
-      <c r="J96" s="3" t="s">
-        <v>14</v>
+      <c r="J96" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>15</v>
@@ -3987,34 +4026,34 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
-        <v>435</v>
+        <v>568</v>
       </c>
       <c r="E97" s="2">
-        <v>794</v>
+        <v>662</v>
       </c>
       <c r="F97" s="2">
-        <v>-359</v>
+        <v>-94</v>
       </c>
       <c r="G97" s="2">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H97" s="2">
         <v>30</v>
       </c>
       <c r="I97" s="2">
-        <v>7</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>15</v>
@@ -4022,34 +4061,34 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
-        <v>560</v>
+        <v>329</v>
       </c>
       <c r="E98" s="2">
-        <v>794</v>
+        <v>728</v>
       </c>
       <c r="F98" s="2">
-        <v>-234</v>
+        <v>-399</v>
       </c>
       <c r="G98" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H98" s="2">
         <v>30</v>
       </c>
       <c r="I98" s="2">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>15</v>
@@ -4057,34 +4096,34 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2">
-        <v>616</v>
+        <v>329</v>
       </c>
       <c r="E99" s="2">
-        <v>794</v>
+        <v>728</v>
       </c>
       <c r="F99" s="2">
-        <v>-178</v>
+        <v>-399</v>
       </c>
       <c r="G99" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H99" s="2">
         <v>30</v>
       </c>
       <c r="I99" s="2">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>15</v>
@@ -4092,34 +4131,34 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D100" s="2">
-        <v>624</v>
+        <v>329</v>
       </c>
       <c r="E100" s="2">
-        <v>794</v>
+        <v>728</v>
       </c>
       <c r="F100" s="2">
-        <v>-170</v>
+        <v>-399</v>
       </c>
       <c r="G100" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H100" s="2">
         <v>30</v>
       </c>
       <c r="I100" s="2">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>15</v>
@@ -4127,34 +4166,34 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
-        <v>929</v>
+        <v>369</v>
       </c>
       <c r="E101" s="2">
-        <v>794</v>
+        <v>728</v>
       </c>
       <c r="F101" s="2">
-        <v>135</v>
+        <v>-359</v>
       </c>
       <c r="G101" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H101" s="2">
         <v>30</v>
       </c>
       <c r="I101" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>15</v>
@@ -4162,34 +4201,34 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
-        <v>509</v>
+        <v>369</v>
       </c>
       <c r="E102" s="2">
-        <v>1244</v>
+        <v>728</v>
       </c>
       <c r="F102" s="2">
-        <v>-735</v>
+        <v>-359</v>
       </c>
       <c r="G102" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H102" s="2">
         <v>30</v>
       </c>
       <c r="I102" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>15</v>
@@ -4197,22 +4236,22 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D103" s="2">
-        <v>539</v>
+        <v>369</v>
       </c>
       <c r="E103" s="2">
-        <v>1244</v>
+        <v>728</v>
       </c>
       <c r="F103" s="2">
-        <v>-705</v>
+        <v>-359</v>
       </c>
       <c r="G103" s="2">
         <v>20</v>
@@ -4224,7 +4263,7 @@
         <v>10</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>15</v>
@@ -4232,34 +4271,34 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D104" s="2">
-        <v>539</v>
+        <v>401</v>
       </c>
       <c r="E104" s="2">
-        <v>1244</v>
+        <v>728</v>
       </c>
       <c r="F104" s="2">
-        <v>-705</v>
+        <v>-327</v>
       </c>
       <c r="G104" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H104" s="2">
         <v>30</v>
       </c>
       <c r="I104" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>15</v>
@@ -4267,34 +4306,34 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D105" s="2">
-        <v>539</v>
+        <v>416</v>
       </c>
       <c r="E105" s="2">
-        <v>1244</v>
+        <v>728</v>
       </c>
       <c r="F105" s="2">
-        <v>-705</v>
+        <v>-312</v>
       </c>
       <c r="G105" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H105" s="2">
         <v>30</v>
       </c>
       <c r="I105" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>15</v>
@@ -4302,22 +4341,22 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="E106" s="2">
         <v>1244</v>
       </c>
       <c r="F106" s="2">
-        <v>-705</v>
+        <v>-755</v>
       </c>
       <c r="G106" s="2">
         <v>20</v>
@@ -4328,8 +4367,8 @@
       <c r="I106" s="2">
         <v>10</v>
       </c>
-      <c r="J106" s="4" t="s">
-        <v>29</v>
+      <c r="J106" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>15</v>
@@ -4337,22 +4376,22 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="E107" s="2">
         <v>1244</v>
       </c>
       <c r="F107" s="2">
-        <v>-705</v>
+        <v>-755</v>
       </c>
       <c r="G107" s="2">
         <v>20</v>
@@ -4363,8 +4402,8 @@
       <c r="I107" s="2">
         <v>10</v>
       </c>
-      <c r="J107" s="4" t="s">
-        <v>29</v>
+      <c r="J107" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>15</v>
@@ -4372,22 +4411,22 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="E108" s="2">
         <v>1244</v>
       </c>
       <c r="F108" s="2">
-        <v>-705</v>
+        <v>-755</v>
       </c>
       <c r="G108" s="2">
         <v>20</v>
@@ -4398,8 +4437,8 @@
       <c r="I108" s="2">
         <v>10</v>
       </c>
-      <c r="J108" s="4" t="s">
-        <v>29</v>
+      <c r="J108" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>15</v>
@@ -4407,34 +4446,34 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2">
-        <v>599</v>
+        <v>489</v>
       </c>
       <c r="E109" s="2">
         <v>1244</v>
       </c>
       <c r="F109" s="2">
-        <v>-645</v>
+        <v>-755</v>
       </c>
       <c r="G109" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H109" s="2">
         <v>30</v>
       </c>
       <c r="I109" s="2">
-        <v>15</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>15</v>
@@ -4442,34 +4481,34 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
-        <v>599</v>
+        <v>489</v>
       </c>
       <c r="E110" s="2">
         <v>1244</v>
       </c>
       <c r="F110" s="2">
-        <v>-645</v>
+        <v>-755</v>
       </c>
       <c r="G110" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H110" s="2">
         <v>30</v>
       </c>
       <c r="I110" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>15</v>
@@ -4477,34 +4516,34 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D111" s="2">
-        <v>609</v>
+        <v>489</v>
       </c>
       <c r="E111" s="2">
         <v>1244</v>
       </c>
       <c r="F111" s="2">
-        <v>-635</v>
+        <v>-755</v>
       </c>
       <c r="G111" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H111" s="2">
         <v>30</v>
       </c>
       <c r="I111" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>15</v>
@@ -4512,34 +4551,34 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D112" s="2">
-        <v>609</v>
+        <v>509</v>
       </c>
       <c r="E112" s="2">
         <v>1244</v>
       </c>
       <c r="F112" s="2">
-        <v>-635</v>
+        <v>-735</v>
       </c>
       <c r="G112" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H112" s="2">
         <v>30</v>
       </c>
       <c r="I112" s="2">
-        <v>0</v>
-      </c>
-      <c r="J112" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>15</v>
@@ -4547,34 +4586,34 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D113" s="2">
-        <v>695</v>
+        <v>509</v>
       </c>
       <c r="E113" s="2">
         <v>1244</v>
       </c>
       <c r="F113" s="2">
-        <v>-549</v>
+        <v>-735</v>
       </c>
       <c r="G113" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H113" s="2">
         <v>30</v>
       </c>
       <c r="I113" s="2">
-        <v>0</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>15</v>
@@ -4582,34 +4621,34 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D114" s="2">
-        <v>807</v>
+        <v>609</v>
       </c>
       <c r="E114" s="2">
         <v>1244</v>
       </c>
       <c r="F114" s="2">
-        <v>-437</v>
+        <v>-635</v>
       </c>
       <c r="G114" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H114" s="2">
         <v>30</v>
       </c>
       <c r="I114" s="2">
-        <v>7</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>15</v>
@@ -4617,34 +4656,34 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D115" s="2">
-        <v>807</v>
+        <v>609</v>
       </c>
       <c r="E115" s="2">
         <v>1244</v>
       </c>
       <c r="F115" s="2">
-        <v>-437</v>
+        <v>-635</v>
       </c>
       <c r="G115" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H115" s="2">
         <v>30</v>
       </c>
       <c r="I115" s="2">
-        <v>7</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>15</v>
@@ -4652,31 +4691,31 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2">
-        <v>807</v>
+        <v>691</v>
       </c>
       <c r="E116" s="2">
         <v>1244</v>
       </c>
       <c r="F116" s="2">
-        <v>-437</v>
+        <v>-553</v>
       </c>
       <c r="G116" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H116" s="2">
         <v>30</v>
       </c>
       <c r="I116" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>14</v>
@@ -4687,31 +4726,31 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D117" s="2">
-        <v>807</v>
+        <v>695</v>
       </c>
       <c r="E117" s="2">
         <v>1244</v>
       </c>
       <c r="F117" s="2">
-        <v>-437</v>
+        <v>-549</v>
       </c>
       <c r="G117" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H117" s="2">
         <v>30</v>
       </c>
       <c r="I117" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>14</v>
@@ -4722,34 +4761,34 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2">
-        <v>1118</v>
+        <v>807</v>
       </c>
       <c r="E118" s="2">
         <v>1244</v>
       </c>
       <c r="F118" s="2">
-        <v>-126</v>
+        <v>-437</v>
       </c>
       <c r="G118" s="2">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H118" s="2">
         <v>30</v>
       </c>
       <c r="I118" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>15</v>
@@ -4757,34 +4796,34 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D119" s="2">
-        <v>1174</v>
+        <v>807</v>
       </c>
       <c r="E119" s="2">
         <v>1244</v>
       </c>
       <c r="F119" s="2">
-        <v>-70</v>
+        <v>-437</v>
       </c>
       <c r="G119" s="2">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H119" s="2">
         <v>30</v>
       </c>
       <c r="I119" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>15</v>
@@ -4792,34 +4831,34 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D120" s="2">
-        <v>1182</v>
+        <v>807</v>
       </c>
       <c r="E120" s="2">
         <v>1244</v>
       </c>
       <c r="F120" s="2">
-        <v>-62</v>
+        <v>-437</v>
       </c>
       <c r="G120" s="2">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H120" s="2">
         <v>30</v>
       </c>
       <c r="I120" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>15</v>
@@ -4827,34 +4866,34 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D121" s="2">
-        <v>639</v>
+        <v>807</v>
       </c>
       <c r="E121" s="2">
         <v>1244</v>
       </c>
       <c r="F121" s="2">
-        <v>-605</v>
+        <v>-437</v>
       </c>
       <c r="G121" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H121" s="2">
         <v>30</v>
       </c>
       <c r="I121" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>15</v>
@@ -4862,7 +4901,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>12</v>
@@ -4871,25 +4910,25 @@
         <v>33</v>
       </c>
       <c r="D122" s="2">
-        <v>639</v>
+        <v>948</v>
       </c>
       <c r="E122" s="2">
         <v>1244</v>
       </c>
       <c r="F122" s="2">
-        <v>-605</v>
+        <v>-296</v>
       </c>
       <c r="G122" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H122" s="2">
         <v>30</v>
       </c>
       <c r="I122" s="2">
-        <v>10</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>29</v>
+        <v>-16</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>15</v>
@@ -4897,34 +4936,34 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D123" s="2">
-        <v>639</v>
+        <v>1118</v>
       </c>
       <c r="E123" s="2">
         <v>1244</v>
       </c>
       <c r="F123" s="2">
-        <v>-605</v>
+        <v>-126</v>
       </c>
       <c r="G123" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H123" s="2">
         <v>30</v>
       </c>
       <c r="I123" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>15</v>
@@ -4932,34 +4971,34 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
-        <v>689</v>
+        <v>1174</v>
       </c>
       <c r="E124" s="2">
         <v>1244</v>
       </c>
       <c r="F124" s="2">
-        <v>-555</v>
+        <v>-70</v>
       </c>
       <c r="G124" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H124" s="2">
         <v>30</v>
       </c>
       <c r="I124" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>15</v>
@@ -4973,16 +5012,16 @@
         <v>12</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
-        <v>689</v>
+        <v>589</v>
       </c>
       <c r="E125" s="2">
         <v>1244</v>
       </c>
       <c r="F125" s="2">
-        <v>-555</v>
+        <v>-655</v>
       </c>
       <c r="G125" s="2">
         <v>20</v>
@@ -4993,8 +5032,8 @@
       <c r="I125" s="2">
         <v>10</v>
       </c>
-      <c r="J125" s="4" t="s">
-        <v>29</v>
+      <c r="J125" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>15</v>
@@ -5008,16 +5047,16 @@
         <v>12</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D126" s="2">
-        <v>689</v>
+        <v>589</v>
       </c>
       <c r="E126" s="2">
         <v>1244</v>
       </c>
       <c r="F126" s="2">
-        <v>-555</v>
+        <v>-655</v>
       </c>
       <c r="G126" s="2">
         <v>20</v>
@@ -5028,8 +5067,8 @@
       <c r="I126" s="2">
         <v>10</v>
       </c>
-      <c r="J126" s="4" t="s">
-        <v>29</v>
+      <c r="J126" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>15</v>
@@ -5043,25 +5082,25 @@
         <v>12</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2">
-        <v>699</v>
+        <v>589</v>
       </c>
       <c r="E127" s="2">
         <v>1244</v>
       </c>
       <c r="F127" s="2">
-        <v>-545</v>
+        <v>-655</v>
       </c>
       <c r="G127" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H127" s="2">
         <v>30</v>
       </c>
       <c r="I127" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>14</v>
@@ -5078,28 +5117,28 @@
         <v>12</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
-        <v>716</v>
+        <v>639</v>
       </c>
       <c r="E128" s="2">
         <v>1244</v>
       </c>
       <c r="F128" s="2">
-        <v>-528</v>
+        <v>-605</v>
       </c>
       <c r="G128" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H128" s="2">
         <v>30</v>
       </c>
       <c r="I128" s="2">
-        <v>0</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>15</v>
@@ -5113,28 +5152,28 @@
         <v>12</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D129" s="2">
-        <v>716</v>
+        <v>639</v>
       </c>
       <c r="E129" s="2">
         <v>1244</v>
       </c>
       <c r="F129" s="2">
-        <v>-528</v>
+        <v>-605</v>
       </c>
       <c r="G129" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H129" s="2">
         <v>30</v>
       </c>
       <c r="I129" s="2">
-        <v>0</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>15</v>
@@ -5148,28 +5187,28 @@
         <v>12</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
-        <v>745</v>
+        <v>689</v>
       </c>
       <c r="E130" s="2">
         <v>1244</v>
       </c>
       <c r="F130" s="2">
-        <v>-499</v>
+        <v>-555</v>
       </c>
       <c r="G130" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H130" s="2">
         <v>30</v>
       </c>
       <c r="I130" s="2">
-        <v>0</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>15</v>
@@ -5183,25 +5222,25 @@
         <v>12</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D131" s="2">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="E131" s="2">
         <v>1244</v>
       </c>
       <c r="F131" s="2">
-        <v>-495</v>
+        <v>-528</v>
       </c>
       <c r="G131" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H131" s="2">
         <v>30</v>
       </c>
       <c r="I131" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>14</v>
@@ -5218,16 +5257,16 @@
         <v>12</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D132" s="2">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="E132" s="2">
         <v>1244</v>
       </c>
       <c r="F132" s="2">
-        <v>-495</v>
+        <v>-528</v>
       </c>
       <c r="G132" s="2">
         <v>30</v>
@@ -5238,8 +5277,8 @@
       <c r="I132" s="2">
         <v>0</v>
       </c>
-      <c r="J132" s="4" t="s">
-        <v>29</v>
+      <c r="J132" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>15</v>
@@ -5253,25 +5292,25 @@
         <v>12</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D133" s="2">
-        <v>1118</v>
+        <v>745</v>
       </c>
       <c r="E133" s="2">
         <v>1244</v>
       </c>
       <c r="F133" s="2">
-        <v>-126</v>
+        <v>-499</v>
       </c>
       <c r="G133" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H133" s="2">
         <v>30</v>
       </c>
       <c r="I133" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>14</v>
@@ -5288,25 +5327,25 @@
         <v>12</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2">
-        <v>1174</v>
+        <v>749</v>
       </c>
       <c r="E134" s="2">
         <v>1244</v>
       </c>
       <c r="F134" s="2">
-        <v>-70</v>
+        <v>-495</v>
       </c>
       <c r="G134" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H134" s="2">
         <v>30</v>
       </c>
       <c r="I134" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>14</v>
@@ -5323,28 +5362,28 @@
         <v>12</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D135" s="2">
-        <v>1431</v>
+        <v>927</v>
       </c>
       <c r="E135" s="2">
         <v>1244</v>
       </c>
       <c r="F135" s="2">
-        <v>187</v>
+        <v>-317</v>
       </c>
       <c r="G135" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H135" s="2">
         <v>30</v>
       </c>
       <c r="I135" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>15</v>
@@ -5352,34 +5391,34 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D136" s="2">
-        <v>799</v>
+        <v>927</v>
       </c>
       <c r="E136" s="2">
-        <v>1394</v>
+        <v>1244</v>
       </c>
       <c r="F136" s="2">
-        <v>-595</v>
+        <v>-317</v>
       </c>
       <c r="G136" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H136" s="2">
         <v>30</v>
       </c>
       <c r="I136" s="2">
-        <v>15</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>15</v>
@@ -5387,34 +5426,34 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D137" s="2">
-        <v>799</v>
+        <v>1118</v>
       </c>
       <c r="E137" s="2">
-        <v>1394</v>
+        <v>1244</v>
       </c>
       <c r="F137" s="2">
-        <v>-595</v>
+        <v>-126</v>
       </c>
       <c r="G137" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H137" s="2">
         <v>30</v>
       </c>
       <c r="I137" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>15</v>
@@ -5422,34 +5461,34 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
-        <v>799</v>
+        <v>1174</v>
       </c>
       <c r="E138" s="2">
-        <v>1394</v>
+        <v>1244</v>
       </c>
       <c r="F138" s="2">
-        <v>-595</v>
+        <v>-70</v>
       </c>
       <c r="G138" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H138" s="2">
         <v>30</v>
       </c>
       <c r="I138" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>15</v>
@@ -5457,34 +5496,34 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
-        <v>799</v>
+        <v>1182</v>
       </c>
       <c r="E139" s="2">
-        <v>1394</v>
+        <v>1244</v>
       </c>
       <c r="F139" s="2">
-        <v>-595</v>
+        <v>-62</v>
       </c>
       <c r="G139" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H139" s="2">
         <v>30</v>
       </c>
       <c r="I139" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>15</v>
@@ -5492,34 +5531,34 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D140" s="2">
-        <v>799</v>
+        <v>1431</v>
       </c>
       <c r="E140" s="2">
-        <v>1394</v>
+        <v>1244</v>
       </c>
       <c r="F140" s="2">
-        <v>-595</v>
+        <v>187</v>
       </c>
       <c r="G140" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H140" s="2">
         <v>30</v>
       </c>
       <c r="I140" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>15</v>
@@ -5530,19 +5569,19 @@
         <v>58</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D141" s="2">
-        <v>834</v>
+        <v>877</v>
       </c>
       <c r="E141" s="2">
         <v>1394</v>
       </c>
       <c r="F141" s="2">
-        <v>-560</v>
+        <v>-517</v>
       </c>
       <c r="G141" s="2">
         <v>30</v>
@@ -5553,8 +5592,8 @@
       <c r="I141" s="2">
         <v>0</v>
       </c>
-      <c r="J141" s="4" t="s">
-        <v>29</v>
+      <c r="J141" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>15</v>
@@ -5565,19 +5604,19 @@
         <v>58</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D142" s="2">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="E142" s="2">
         <v>1394</v>
       </c>
       <c r="F142" s="2">
-        <v>-559</v>
+        <v>-517</v>
       </c>
       <c r="G142" s="2">
         <v>30</v>
@@ -5588,8 +5627,8 @@
       <c r="I142" s="2">
         <v>0</v>
       </c>
-      <c r="J142" s="4" t="s">
-        <v>29</v>
+      <c r="J142" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>15</v>
@@ -5600,19 +5639,19 @@
         <v>58</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2">
-        <v>865</v>
+        <v>933</v>
       </c>
       <c r="E143" s="2">
         <v>1394</v>
       </c>
       <c r="F143" s="2">
-        <v>-529</v>
+        <v>-461</v>
       </c>
       <c r="G143" s="2">
         <v>30</v>
@@ -5623,8 +5662,8 @@
       <c r="I143" s="2">
         <v>0</v>
       </c>
-      <c r="J143" s="4" t="s">
-        <v>29</v>
+      <c r="J143" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>15</v>
@@ -5635,19 +5674,19 @@
         <v>58</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D144" s="2">
-        <v>865</v>
+        <v>935</v>
       </c>
       <c r="E144" s="2">
         <v>1394</v>
       </c>
       <c r="F144" s="2">
-        <v>-529</v>
+        <v>-459</v>
       </c>
       <c r="G144" s="2">
         <v>30</v>
@@ -5658,8 +5697,8 @@
       <c r="I144" s="2">
         <v>0</v>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>29</v>
+      <c r="J144" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>15</v>
@@ -5670,28 +5709,28 @@
         <v>58</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D145" s="2">
-        <v>869</v>
+        <v>983</v>
       </c>
       <c r="E145" s="2">
         <v>1394</v>
       </c>
       <c r="F145" s="2">
-        <v>-525</v>
+        <v>-411</v>
       </c>
       <c r="G145" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H145" s="2">
         <v>30</v>
       </c>
       <c r="I145" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J145" s="3" t="s">
         <v>14</v>
@@ -5705,28 +5744,28 @@
         <v>58</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D146" s="2">
-        <v>889</v>
+        <v>983</v>
       </c>
       <c r="E146" s="2">
         <v>1394</v>
       </c>
       <c r="F146" s="2">
-        <v>-505</v>
+        <v>-411</v>
       </c>
       <c r="G146" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H146" s="2">
         <v>30</v>
       </c>
       <c r="I146" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>14</v>
@@ -5740,31 +5779,31 @@
         <v>58</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D147" s="2">
-        <v>889</v>
+        <v>1419</v>
       </c>
       <c r="E147" s="2">
         <v>1394</v>
       </c>
       <c r="F147" s="2">
-        <v>-505</v>
+        <v>25</v>
       </c>
       <c r="G147" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H147" s="2">
         <v>30</v>
       </c>
       <c r="I147" s="2">
-        <v>10</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>15</v>
@@ -5775,31 +5814,31 @@
         <v>58</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D148" s="2">
-        <v>1043</v>
+        <v>1556</v>
       </c>
       <c r="E148" s="2">
         <v>1394</v>
       </c>
       <c r="F148" s="2">
-        <v>-351</v>
+        <v>162</v>
       </c>
       <c r="G148" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H148" s="2">
         <v>30</v>
       </c>
       <c r="I148" s="2">
-        <v>0</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>15</v>
@@ -5807,34 +5846,34 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
-        <v>1419</v>
+        <v>759</v>
       </c>
       <c r="E149" s="2">
-        <v>1394</v>
+        <v>1244</v>
       </c>
       <c r="F149" s="2">
-        <v>25</v>
+        <v>-485</v>
       </c>
       <c r="G149" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H149" s="2">
         <v>30</v>
       </c>
       <c r="I149" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>15</v>
@@ -5842,36 +5881,2801 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" s="2">
+        <v>799</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1244</v>
+      </c>
+      <c r="F150" s="2">
+        <v>-445</v>
+      </c>
+      <c r="G150" s="2">
+        <v>15</v>
+      </c>
+      <c r="H150" s="2">
+        <v>30</v>
+      </c>
+      <c r="I150" s="2">
+        <v>15</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="2">
+        <v>849</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1244</v>
+      </c>
+      <c r="F151" s="2">
+        <v>-395</v>
+      </c>
+      <c r="G151" s="2">
+        <v>20</v>
+      </c>
+      <c r="H151" s="2">
+        <v>30</v>
+      </c>
+      <c r="I151" s="2">
+        <v>10</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="2">
+        <v>849</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1244</v>
+      </c>
+      <c r="F152" s="2">
+        <v>-395</v>
+      </c>
+      <c r="G152" s="2">
+        <v>20</v>
+      </c>
+      <c r="H152" s="2">
+        <v>30</v>
+      </c>
+      <c r="I152" s="2">
+        <v>10</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" s="2">
+        <v>849</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1244</v>
+      </c>
+      <c r="F153" s="2">
+        <v>-395</v>
+      </c>
+      <c r="G153" s="2">
+        <v>20</v>
+      </c>
+      <c r="H153" s="2">
+        <v>30</v>
+      </c>
+      <c r="I153" s="2">
+        <v>10</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="2">
+        <v>1034</v>
+      </c>
+      <c r="E154" s="2">
+        <v>1244</v>
+      </c>
+      <c r="F154" s="2">
+        <v>-210</v>
+      </c>
+      <c r="G154" s="2">
+        <v>30</v>
+      </c>
+      <c r="H154" s="2">
+        <v>30</v>
+      </c>
+      <c r="I154" s="2">
+        <v>0</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1039</v>
+      </c>
+      <c r="E155" s="2">
+        <v>1244</v>
+      </c>
+      <c r="F155" s="2">
+        <v>-205</v>
+      </c>
+      <c r="G155" s="2">
+        <v>40</v>
+      </c>
+      <c r="H155" s="2">
+        <v>30</v>
+      </c>
+      <c r="I155" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D156" s="2">
+        <v>929</v>
+      </c>
+      <c r="E156" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F156" s="2">
+        <v>-665</v>
+      </c>
+      <c r="G156" s="2">
+        <v>20</v>
+      </c>
+      <c r="H156" s="2">
+        <v>30</v>
+      </c>
+      <c r="I156" s="2">
+        <v>10</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D157" s="2">
+        <v>929</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F157" s="2">
+        <v>-665</v>
+      </c>
+      <c r="G157" s="2">
+        <v>20</v>
+      </c>
+      <c r="H157" s="2">
+        <v>30</v>
+      </c>
+      <c r="I157" s="2">
+        <v>10</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="2">
+        <v>929</v>
+      </c>
+      <c r="E158" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F158" s="2">
+        <v>-665</v>
+      </c>
+      <c r="G158" s="2">
+        <v>20</v>
+      </c>
+      <c r="H158" s="2">
+        <v>30</v>
+      </c>
+      <c r="I158" s="2">
+        <v>10</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="2">
+        <v>929</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F159" s="2">
+        <v>-665</v>
+      </c>
+      <c r="G159" s="2">
+        <v>20</v>
+      </c>
+      <c r="H159" s="2">
+        <v>30</v>
+      </c>
+      <c r="I159" s="2">
+        <v>10</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D160" s="2">
+        <v>949</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F160" s="2">
+        <v>-645</v>
+      </c>
+      <c r="G160" s="2">
+        <v>15</v>
+      </c>
+      <c r="H160" s="2">
+        <v>30</v>
+      </c>
+      <c r="I160" s="2">
+        <v>15</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1149</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F161" s="2">
+        <v>-445</v>
+      </c>
+      <c r="G161" s="2">
+        <v>15</v>
+      </c>
+      <c r="H161" s="2">
+        <v>30</v>
+      </c>
+      <c r="I161" s="2">
+        <v>15</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="2">
+        <v>1174</v>
+      </c>
+      <c r="E162" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F162" s="2">
+        <v>-420</v>
+      </c>
+      <c r="G162" s="2">
+        <v>30</v>
+      </c>
+      <c r="H162" s="2">
+        <v>30</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D163" s="2">
+        <v>1174</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F163" s="2">
+        <v>-420</v>
+      </c>
+      <c r="G163" s="2">
+        <v>30</v>
+      </c>
+      <c r="H163" s="2">
+        <v>30</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1229</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F164" s="2">
+        <v>-365</v>
+      </c>
+      <c r="G164" s="2">
+        <v>20</v>
+      </c>
+      <c r="H164" s="2">
+        <v>30</v>
+      </c>
+      <c r="I164" s="2">
+        <v>10</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1229</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F165" s="2">
+        <v>-365</v>
+      </c>
+      <c r="G165" s="2">
+        <v>20</v>
+      </c>
+      <c r="H165" s="2">
+        <v>30</v>
+      </c>
+      <c r="I165" s="2">
+        <v>10</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" s="2">
+        <v>1258</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F166" s="2">
+        <v>-336</v>
+      </c>
+      <c r="G166" s="2">
+        <v>30</v>
+      </c>
+      <c r="H166" s="2">
+        <v>30</v>
+      </c>
+      <c r="I166" s="2">
+        <v>0</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1258</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F167" s="2">
+        <v>-336</v>
+      </c>
+      <c r="G167" s="2">
+        <v>30</v>
+      </c>
+      <c r="H167" s="2">
+        <v>30</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1335</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F168" s="2">
+        <v>-259</v>
+      </c>
+      <c r="G168" s="2">
+        <v>30</v>
+      </c>
+      <c r="H168" s="2">
+        <v>30</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D169" s="2">
+        <v>1713</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1594</v>
+      </c>
+      <c r="F169" s="2">
+        <v>119</v>
+      </c>
+      <c r="G169" s="2">
+        <v>46</v>
+      </c>
+      <c r="H169" s="2">
+        <v>30</v>
+      </c>
+      <c r="I169" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" s="2">
+        <v>1529</v>
+      </c>
+      <c r="E170" s="2">
+        <v>2244</v>
+      </c>
+      <c r="F170" s="2">
+        <v>-715</v>
+      </c>
+      <c r="G170" s="2">
+        <v>30</v>
+      </c>
+      <c r="H170" s="2">
+        <v>30</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D171" s="2">
+        <v>1535</v>
+      </c>
+      <c r="E171" s="2">
+        <v>2244</v>
+      </c>
+      <c r="F171" s="2">
+        <v>-709</v>
+      </c>
+      <c r="G171" s="2">
+        <v>30</v>
+      </c>
+      <c r="H171" s="2">
+        <v>30</v>
+      </c>
+      <c r="I171" s="2">
+        <v>0</v>
+      </c>
+      <c r="J171" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="2">
+        <v>1845</v>
+      </c>
+      <c r="E172" s="2">
+        <v>2244</v>
+      </c>
+      <c r="F172" s="2">
+        <v>-399</v>
+      </c>
+      <c r="G172" s="2">
+        <v>30</v>
+      </c>
+      <c r="H172" s="2">
+        <v>30</v>
+      </c>
+      <c r="I172" s="2">
+        <v>0</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D150" s="2">
-        <v>1556</v>
-      </c>
-      <c r="E150" s="2">
-        <v>1394</v>
-      </c>
-      <c r="F150" s="2">
-        <v>162</v>
-      </c>
-      <c r="G150" s="2">
+      <c r="D173" s="2">
+        <v>2183</v>
+      </c>
+      <c r="E173" s="2">
+        <v>2244</v>
+      </c>
+      <c r="F173" s="2">
+        <v>-61</v>
+      </c>
+      <c r="G173" s="2">
         <v>46</v>
       </c>
-      <c r="H150" s="2">
-        <v>30</v>
-      </c>
-      <c r="I150" s="2">
+      <c r="H173" s="2">
+        <v>30</v>
+      </c>
+      <c r="I173" s="2">
         <v>-16</v>
       </c>
-      <c r="J150" s="3" t="s">
+      <c r="J173" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K173" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" s="2">
+        <v>1529</v>
+      </c>
+      <c r="E174" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F174" s="2">
+        <v>-1015</v>
+      </c>
+      <c r="G174" s="2">
+        <v>20</v>
+      </c>
+      <c r="H174" s="2">
+        <v>30</v>
+      </c>
+      <c r="I174" s="2">
+        <v>10</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="2">
+        <v>1529</v>
+      </c>
+      <c r="E175" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F175" s="2">
+        <v>-1015</v>
+      </c>
+      <c r="G175" s="2">
+        <v>20</v>
+      </c>
+      <c r="H175" s="2">
+        <v>30</v>
+      </c>
+      <c r="I175" s="2">
+        <v>10</v>
+      </c>
+      <c r="J175" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" s="2">
+        <v>1529</v>
+      </c>
+      <c r="E176" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F176" s="2">
+        <v>-1015</v>
+      </c>
+      <c r="G176" s="2">
+        <v>20</v>
+      </c>
+      <c r="H176" s="2">
+        <v>30</v>
+      </c>
+      <c r="I176" s="2">
+        <v>10</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="2">
+        <v>1843</v>
+      </c>
+      <c r="E177" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F177" s="2">
+        <v>-701</v>
+      </c>
+      <c r="G177" s="2">
+        <v>30</v>
+      </c>
+      <c r="H177" s="2">
+        <v>30</v>
+      </c>
+      <c r="I177" s="2">
+        <v>0</v>
+      </c>
+      <c r="J177" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="2">
+        <v>1875</v>
+      </c>
+      <c r="E178" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F178" s="2">
+        <v>-669</v>
+      </c>
+      <c r="G178" s="2">
+        <v>30</v>
+      </c>
+      <c r="H178" s="2">
+        <v>30</v>
+      </c>
+      <c r="I178" s="2">
+        <v>0</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" s="2">
+        <v>2029</v>
+      </c>
+      <c r="E179" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F179" s="2">
+        <v>-515</v>
+      </c>
+      <c r="G179" s="2">
+        <v>20</v>
+      </c>
+      <c r="H179" s="2">
+        <v>30</v>
+      </c>
+      <c r="I179" s="2">
+        <v>10</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D180" s="2">
+        <v>2029</v>
+      </c>
+      <c r="E180" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F180" s="2">
+        <v>-515</v>
+      </c>
+      <c r="G180" s="2">
+        <v>20</v>
+      </c>
+      <c r="H180" s="2">
+        <v>30</v>
+      </c>
+      <c r="I180" s="2">
+        <v>10</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2029</v>
+      </c>
+      <c r="E181" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F181" s="2">
+        <v>-515</v>
+      </c>
+      <c r="G181" s="2">
+        <v>20</v>
+      </c>
+      <c r="H181" s="2">
+        <v>30</v>
+      </c>
+      <c r="I181" s="2">
+        <v>10</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D182" s="2">
+        <v>2029</v>
+      </c>
+      <c r="E182" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F182" s="2">
+        <v>-515</v>
+      </c>
+      <c r="G182" s="2">
+        <v>20</v>
+      </c>
+      <c r="H182" s="2">
+        <v>30</v>
+      </c>
+      <c r="I182" s="2">
+        <v>10</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D183" s="2">
+        <v>2144</v>
+      </c>
+      <c r="E183" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F183" s="2">
+        <v>-400</v>
+      </c>
+      <c r="G183" s="2">
+        <v>30</v>
+      </c>
+      <c r="H183" s="2">
+        <v>30</v>
+      </c>
+      <c r="I183" s="2">
+        <v>0</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D184" s="2">
+        <v>2219</v>
+      </c>
+      <c r="E184" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F184" s="2">
+        <v>-325</v>
+      </c>
+      <c r="G184" s="2">
+        <v>40</v>
+      </c>
+      <c r="H184" s="2">
+        <v>30</v>
+      </c>
+      <c r="I184" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185" s="2">
+        <v>2300</v>
+      </c>
+      <c r="E185" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F185" s="2">
+        <v>-244</v>
+      </c>
+      <c r="G185" s="2">
+        <v>30</v>
+      </c>
+      <c r="H185" s="2">
+        <v>30</v>
+      </c>
+      <c r="I185" s="2">
+        <v>0</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K185" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D186" s="2">
+        <v>2327</v>
+      </c>
+      <c r="E186" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F186" s="2">
+        <v>-217</v>
+      </c>
+      <c r="G186" s="2">
+        <v>30</v>
+      </c>
+      <c r="H186" s="2">
+        <v>30</v>
+      </c>
+      <c r="I186" s="2">
+        <v>0</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D187" s="2">
+        <v>2327</v>
+      </c>
+      <c r="E187" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F187" s="2">
+        <v>-217</v>
+      </c>
+      <c r="G187" s="2">
+        <v>30</v>
+      </c>
+      <c r="H187" s="2">
+        <v>30</v>
+      </c>
+      <c r="I187" s="2">
+        <v>0</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188" s="2">
+        <v>2327</v>
+      </c>
+      <c r="E188" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F188" s="2">
+        <v>-217</v>
+      </c>
+      <c r="G188" s="2">
+        <v>30</v>
+      </c>
+      <c r="H188" s="2">
+        <v>30</v>
+      </c>
+      <c r="I188" s="2">
+        <v>0</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D189" s="2">
+        <v>2327</v>
+      </c>
+      <c r="E189" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F189" s="2">
+        <v>-217</v>
+      </c>
+      <c r="G189" s="2">
+        <v>30</v>
+      </c>
+      <c r="H189" s="2">
+        <v>30</v>
+      </c>
+      <c r="I189" s="2">
+        <v>0</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K189" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D190" s="2">
+        <v>2591</v>
+      </c>
+      <c r="E190" s="2">
+        <v>2544</v>
+      </c>
+      <c r="F190" s="2">
+        <v>47</v>
+      </c>
+      <c r="G190" s="2">
+        <v>46</v>
+      </c>
+      <c r="H190" s="2">
+        <v>30</v>
+      </c>
+      <c r="I190" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D191" s="2">
+        <v>469</v>
+      </c>
+      <c r="E191" s="2">
+        <v>976</v>
+      </c>
+      <c r="F191" s="2">
+        <v>-507</v>
+      </c>
+      <c r="G191" s="2">
+        <v>15</v>
+      </c>
+      <c r="H191" s="2">
+        <v>30</v>
+      </c>
+      <c r="I191" s="2">
+        <v>15</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D192" s="2">
+        <v>469</v>
+      </c>
+      <c r="E192" s="2">
+        <v>976</v>
+      </c>
+      <c r="F192" s="2">
+        <v>-507</v>
+      </c>
+      <c r="G192" s="2">
+        <v>15</v>
+      </c>
+      <c r="H192" s="2">
+        <v>30</v>
+      </c>
+      <c r="I192" s="2">
+        <v>15</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D193" s="2">
+        <v>549</v>
+      </c>
+      <c r="E193" s="2">
+        <v>976</v>
+      </c>
+      <c r="F193" s="2">
+        <v>-427</v>
+      </c>
+      <c r="G193" s="2">
+        <v>15</v>
+      </c>
+      <c r="H193" s="2">
+        <v>30</v>
+      </c>
+      <c r="I193" s="2">
+        <v>15</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D194" s="2">
+        <v>549</v>
+      </c>
+      <c r="E194" s="2">
+        <v>976</v>
+      </c>
+      <c r="F194" s="2">
+        <v>-427</v>
+      </c>
+      <c r="G194" s="2">
+        <v>15</v>
+      </c>
+      <c r="H194" s="2">
+        <v>30</v>
+      </c>
+      <c r="I194" s="2">
+        <v>15</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K194" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2">
+        <v>589</v>
+      </c>
+      <c r="E195" s="2">
+        <v>976</v>
+      </c>
+      <c r="F195" s="2">
+        <v>-387</v>
+      </c>
+      <c r="G195" s="2">
+        <v>20</v>
+      </c>
+      <c r="H195" s="2">
+        <v>30</v>
+      </c>
+      <c r="I195" s="2">
+        <v>10</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196" s="2">
+        <v>589</v>
+      </c>
+      <c r="E196" s="2">
+        <v>976</v>
+      </c>
+      <c r="F196" s="2">
+        <v>-387</v>
+      </c>
+      <c r="G196" s="2">
+        <v>20</v>
+      </c>
+      <c r="H196" s="2">
+        <v>30</v>
+      </c>
+      <c r="I196" s="2">
+        <v>10</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D197" s="2">
+        <v>1180</v>
+      </c>
+      <c r="E197" s="2">
+        <v>976</v>
+      </c>
+      <c r="F197" s="2">
+        <v>204</v>
+      </c>
+      <c r="G197" s="2">
+        <v>46</v>
+      </c>
+      <c r="H197" s="2">
+        <v>30</v>
+      </c>
+      <c r="I197" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" s="2">
+        <v>599</v>
+      </c>
+      <c r="E198" s="2">
+        <v>728</v>
+      </c>
+      <c r="F198" s="2">
+        <v>-129</v>
+      </c>
+      <c r="G198" s="2">
+        <v>40</v>
+      </c>
+      <c r="H198" s="2">
+        <v>30</v>
+      </c>
+      <c r="I198" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D199" s="2">
+        <v>599</v>
+      </c>
+      <c r="E199" s="2">
+        <v>728</v>
+      </c>
+      <c r="F199" s="2">
+        <v>-129</v>
+      </c>
+      <c r="G199" s="2">
+        <v>40</v>
+      </c>
+      <c r="H199" s="2">
+        <v>30</v>
+      </c>
+      <c r="I199" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D200" s="2">
+        <v>424</v>
+      </c>
+      <c r="E200" s="2">
+        <v>662</v>
+      </c>
+      <c r="F200" s="2">
+        <v>-238</v>
+      </c>
+      <c r="G200" s="2">
+        <v>30</v>
+      </c>
+      <c r="H200" s="2">
+        <v>30</v>
+      </c>
+      <c r="I200" s="2">
+        <v>0</v>
+      </c>
+      <c r="J200" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" s="2">
+        <v>599</v>
+      </c>
+      <c r="E201" s="2">
+        <v>662</v>
+      </c>
+      <c r="F201" s="2">
+        <v>-63</v>
+      </c>
+      <c r="G201" s="2">
+        <v>40</v>
+      </c>
+      <c r="H201" s="2">
+        <v>30</v>
+      </c>
+      <c r="I201" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J201" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D202" s="2">
+        <v>599</v>
+      </c>
+      <c r="E202" s="2">
+        <v>662</v>
+      </c>
+      <c r="F202" s="2">
+        <v>-63</v>
+      </c>
+      <c r="G202" s="2">
+        <v>40</v>
+      </c>
+      <c r="H202" s="2">
+        <v>30</v>
+      </c>
+      <c r="I202" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J202" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" s="2">
+        <v>599</v>
+      </c>
+      <c r="E203" s="2">
+        <v>662</v>
+      </c>
+      <c r="F203" s="2">
+        <v>-63</v>
+      </c>
+      <c r="G203" s="2">
+        <v>40</v>
+      </c>
+      <c r="H203" s="2">
+        <v>30</v>
+      </c>
+      <c r="I203" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J203" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="2">
+        <v>599</v>
+      </c>
+      <c r="E204" s="2">
+        <v>662</v>
+      </c>
+      <c r="F204" s="2">
+        <v>-63</v>
+      </c>
+      <c r="G204" s="2">
+        <v>40</v>
+      </c>
+      <c r="H204" s="2">
+        <v>30</v>
+      </c>
+      <c r="I204" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J204" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D205" s="2">
+        <v>599</v>
+      </c>
+      <c r="E205" s="2">
+        <v>662</v>
+      </c>
+      <c r="F205" s="2">
+        <v>-63</v>
+      </c>
+      <c r="G205" s="2">
+        <v>40</v>
+      </c>
+      <c r="H205" s="2">
+        <v>30</v>
+      </c>
+      <c r="I205" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J205" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D206" s="2">
+        <v>599</v>
+      </c>
+      <c r="E206" s="2">
+        <v>662</v>
+      </c>
+      <c r="F206" s="2">
+        <v>-63</v>
+      </c>
+      <c r="G206" s="2">
+        <v>40</v>
+      </c>
+      <c r="H206" s="2">
+        <v>30</v>
+      </c>
+      <c r="I206" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D207" s="2">
+        <v>407</v>
+      </c>
+      <c r="E207" s="2">
+        <v>494</v>
+      </c>
+      <c r="F207" s="2">
+        <v>-87</v>
+      </c>
+      <c r="G207" s="2">
+        <v>46</v>
+      </c>
+      <c r="H207" s="2">
+        <v>30</v>
+      </c>
+      <c r="I207" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J207" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="2">
+        <v>482</v>
+      </c>
+      <c r="E208" s="2">
+        <v>494</v>
+      </c>
+      <c r="F208" s="2">
+        <v>-12</v>
+      </c>
+      <c r="G208" s="2">
+        <v>46</v>
+      </c>
+      <c r="H208" s="2">
+        <v>30</v>
+      </c>
+      <c r="I208" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J208" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D209" s="2">
+        <v>482</v>
+      </c>
+      <c r="E209" s="2">
+        <v>494</v>
+      </c>
+      <c r="F209" s="2">
+        <v>-12</v>
+      </c>
+      <c r="G209" s="2">
+        <v>46</v>
+      </c>
+      <c r="H209" s="2">
+        <v>30</v>
+      </c>
+      <c r="I209" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J209" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="2">
+        <v>482</v>
+      </c>
+      <c r="E210" s="2">
+        <v>494</v>
+      </c>
+      <c r="F210" s="2">
+        <v>-12</v>
+      </c>
+      <c r="G210" s="2">
+        <v>46</v>
+      </c>
+      <c r="H210" s="2">
+        <v>30</v>
+      </c>
+      <c r="I210" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D211" s="2">
+        <v>482</v>
+      </c>
+      <c r="E211" s="2">
+        <v>494</v>
+      </c>
+      <c r="F211" s="2">
+        <v>-12</v>
+      </c>
+      <c r="G211" s="2">
+        <v>46</v>
+      </c>
+      <c r="H211" s="2">
+        <v>30</v>
+      </c>
+      <c r="I211" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D212" s="2">
+        <v>929</v>
+      </c>
+      <c r="E212" s="2">
+        <v>728</v>
+      </c>
+      <c r="F212" s="2">
+        <v>201</v>
+      </c>
+      <c r="G212" s="2">
+        <v>46</v>
+      </c>
+      <c r="H212" s="2">
+        <v>30</v>
+      </c>
+      <c r="I212" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D213" s="2">
+        <v>799</v>
+      </c>
+      <c r="E213" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F213" s="2">
+        <v>-1045</v>
+      </c>
+      <c r="G213" s="2">
+        <v>15</v>
+      </c>
+      <c r="H213" s="2">
+        <v>30</v>
+      </c>
+      <c r="I213" s="2">
+        <v>15</v>
+      </c>
+      <c r="J213" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D214" s="2">
+        <v>799</v>
+      </c>
+      <c r="E214" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F214" s="2">
+        <v>-1045</v>
+      </c>
+      <c r="G214" s="2">
+        <v>15</v>
+      </c>
+      <c r="H214" s="2">
+        <v>30</v>
+      </c>
+      <c r="I214" s="2">
+        <v>15</v>
+      </c>
+      <c r="J214" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K214" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D215" s="2">
+        <v>849</v>
+      </c>
+      <c r="E215" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F215" s="2">
+        <v>-995</v>
+      </c>
+      <c r="G215" s="2">
+        <v>20</v>
+      </c>
+      <c r="H215" s="2">
+        <v>30</v>
+      </c>
+      <c r="I215" s="2">
+        <v>10</v>
+      </c>
+      <c r="J215" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D216" s="2">
+        <v>929</v>
+      </c>
+      <c r="E216" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F216" s="2">
+        <v>-915</v>
+      </c>
+      <c r="G216" s="2">
+        <v>20</v>
+      </c>
+      <c r="H216" s="2">
+        <v>30</v>
+      </c>
+      <c r="I216" s="2">
+        <v>10</v>
+      </c>
+      <c r="J216" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D217" s="2">
+        <v>929</v>
+      </c>
+      <c r="E217" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F217" s="2">
+        <v>-915</v>
+      </c>
+      <c r="G217" s="2">
+        <v>20</v>
+      </c>
+      <c r="H217" s="2">
+        <v>30</v>
+      </c>
+      <c r="I217" s="2">
+        <v>10</v>
+      </c>
+      <c r="J217" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K217" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D218" s="2">
+        <v>929</v>
+      </c>
+      <c r="E218" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F218" s="2">
+        <v>-915</v>
+      </c>
+      <c r="G218" s="2">
+        <v>20</v>
+      </c>
+      <c r="H218" s="2">
+        <v>30</v>
+      </c>
+      <c r="I218" s="2">
+        <v>10</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K218" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D219" s="2">
+        <v>929</v>
+      </c>
+      <c r="E219" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F219" s="2">
+        <v>-915</v>
+      </c>
+      <c r="G219" s="2">
+        <v>20</v>
+      </c>
+      <c r="H219" s="2">
+        <v>30</v>
+      </c>
+      <c r="I219" s="2">
+        <v>10</v>
+      </c>
+      <c r="J219" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D220" s="2">
+        <v>977</v>
+      </c>
+      <c r="E220" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F220" s="2">
+        <v>-867</v>
+      </c>
+      <c r="G220" s="2">
+        <v>30</v>
+      </c>
+      <c r="H220" s="2">
+        <v>30</v>
+      </c>
+      <c r="I220" s="2">
+        <v>0</v>
+      </c>
+      <c r="J220" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" s="2">
+        <v>1029</v>
+      </c>
+      <c r="E221" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F221" s="2">
+        <v>-815</v>
+      </c>
+      <c r="G221" s="2">
+        <v>20</v>
+      </c>
+      <c r="H221" s="2">
+        <v>30</v>
+      </c>
+      <c r="I221" s="2">
+        <v>10</v>
+      </c>
+      <c r="J221" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K221" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D222" s="2">
+        <v>1258</v>
+      </c>
+      <c r="E222" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F222" s="2">
+        <v>-586</v>
+      </c>
+      <c r="G222" s="2">
+        <v>30</v>
+      </c>
+      <c r="H222" s="2">
+        <v>30</v>
+      </c>
+      <c r="I222" s="2">
+        <v>0</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" s="2">
+        <v>1333</v>
+      </c>
+      <c r="E223" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F223" s="2">
+        <v>-511</v>
+      </c>
+      <c r="G223" s="2">
+        <v>30</v>
+      </c>
+      <c r="H223" s="2">
+        <v>30</v>
+      </c>
+      <c r="I223" s="2">
+        <v>0</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K223" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D224" s="2">
+        <v>1333</v>
+      </c>
+      <c r="E224" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F224" s="2">
+        <v>-511</v>
+      </c>
+      <c r="G224" s="2">
+        <v>30</v>
+      </c>
+      <c r="H224" s="2">
+        <v>30</v>
+      </c>
+      <c r="I224" s="2">
+        <v>0</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K224" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D225" s="2">
+        <v>1443</v>
+      </c>
+      <c r="E225" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F225" s="2">
+        <v>-401</v>
+      </c>
+      <c r="G225" s="2">
+        <v>23</v>
+      </c>
+      <c r="H225" s="2">
+        <v>30</v>
+      </c>
+      <c r="I225" s="2">
+        <v>7</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D226" s="2">
+        <v>1518</v>
+      </c>
+      <c r="E226" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F226" s="2">
+        <v>-326</v>
+      </c>
+      <c r="G226" s="2">
+        <v>23</v>
+      </c>
+      <c r="H226" s="2">
+        <v>30</v>
+      </c>
+      <c r="I226" s="2">
+        <v>7</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K226" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D227" s="2">
+        <v>1518</v>
+      </c>
+      <c r="E227" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F227" s="2">
+        <v>-326</v>
+      </c>
+      <c r="G227" s="2">
+        <v>23</v>
+      </c>
+      <c r="H227" s="2">
+        <v>30</v>
+      </c>
+      <c r="I227" s="2">
+        <v>7</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D228" s="2">
+        <v>1870</v>
+      </c>
+      <c r="E228" s="2">
+        <v>1844</v>
+      </c>
+      <c r="F228" s="2">
+        <v>26</v>
+      </c>
+      <c r="G228" s="2">
+        <v>46</v>
+      </c>
+      <c r="H228" s="2">
+        <v>30</v>
+      </c>
+      <c r="I228" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K228" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D229" s="2">
+        <v>1055</v>
+      </c>
+      <c r="E229" s="2">
+        <v>864</v>
+      </c>
+      <c r="F229" s="2">
+        <v>191</v>
+      </c>
+      <c r="G229" s="2">
+        <v>46</v>
+      </c>
+      <c r="H229" s="2">
+        <v>30</v>
+      </c>
+      <c r="I229" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K229" s="2" t="s">
         <v>15</v>
       </c>
     </row>
